--- a/src/【特征对照表】.xlsx
+++ b/src/【特征对照表】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="21000" windowHeight="12995"/>
   </bookViews>
   <sheets>
     <sheet name="有码" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="862">
-  <si>
-    <t>Javdb</t>
-  </si>
-  <si>
-    <t>Javlibrary</t>
-  </si>
-  <si>
-    <t>Javbus</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="867">
+  <si>
+    <t>JavDb</t>
+  </si>
+  <si>
+    <t>JavLibrary</t>
+  </si>
+  <si>
+    <t>JavBus</t>
   </si>
   <si>
     <t>简体中文</t>
@@ -2599,6 +2599,21 @@
   </si>
   <si>
     <t>无套内射</t>
+  </si>
+  <si>
+    <t>3P</t>
+  </si>
+  <si>
+    <t>1v1性交</t>
+  </si>
+  <si>
+    <t>淫蕩手淫</t>
+  </si>
+  <si>
+    <t>女优手淫</t>
+  </si>
+  <si>
+    <t>女優手淫</t>
   </si>
   <si>
     <t>重新整理</t>
@@ -2611,8 +2626,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2632,6 +2647,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2639,7 +2661,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2653,48 +2736,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2707,21 +2753,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2738,31 +2769,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2784,31 +2799,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2826,7 +2871,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2838,73 +2931,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2916,55 +2961,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2981,23 +2996,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3018,16 +3018,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3041,11 +3050,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3081,10 +3096,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3093,19 +3108,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3114,112 +3129,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3596,12 +3611,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G411"/>
+  <dimension ref="A1:G414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D420" sqref="D420"/>
+      <selection pane="bottomLeft" activeCell="C418" sqref="C418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -10079,6 +10094,49 @@
         <v>859</v>
       </c>
       <c r="F411" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="C412" s="9"/>
+      <c r="D412" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="E412" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D413" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="E413" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="D414" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="E414" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="F414" s="3" t="s">
         <v>333</v>
       </c>
     </row>
@@ -10110,7 +10168,7 @@
         <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="C1" t="s">
         <v>441</v>

--- a/src/【特征对照表】.xlsx
+++ b/src/【特征对照表】.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="867">
   <si>
     <t>JavDb</t>
   </si>
@@ -627,10 +627,10 @@
     <t>打手槍</t>
   </si>
   <si>
+    <t>單體作品</t>
+  </si>
+  <si>
     <t>单体作品</t>
-  </si>
-  <si>
-    <t>單體作品</t>
   </si>
   <si>
     <t>蕩婦</t>
@@ -2624,9 +2624,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2647,13 +2647,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2661,14 +2654,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2681,8 +2674,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2696,19 +2690,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2752,6 +2752,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2777,13 +2784,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2799,7 +2799,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2811,7 +2883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2823,19 +2895,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2847,7 +2925,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2859,31 +2955,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2895,91 +2979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2990,15 +2990,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3028,6 +3019,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3096,10 +3096,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3108,37 +3108,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3153,88 +3153,88 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3614,9 +3614,9 @@
   <dimension ref="A1:G414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C418" sqref="C418"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -4796,18 +4796,21 @@
         <v>202</v>
       </c>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="1:6">
+      <c r="A78" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="B78" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="E78" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="F78" s="7"/>
     </row>

--- a/src/【特征对照表】.xlsx
+++ b/src/【特征对照表】.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="868">
   <si>
     <t>JavDb</t>
   </si>
@@ -2569,6 +2569,9 @@
   </si>
   <si>
     <t>靴子</t>
+  </si>
+  <si>
+    <t>长靴</t>
   </si>
   <si>
     <t>高筒靴</t>
@@ -2624,9 +2627,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2654,7 +2657,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2668,9 +2671,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2692,23 +2724,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2733,22 +2759,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2782,13 +2792,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2799,7 +2802,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2811,13 +2862,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2829,73 +2940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2913,13 +2958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2931,55 +2970,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3008,21 +3011,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3041,11 +3029,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3061,6 +3055,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3096,10 +3099,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3108,133 +3111,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3614,9 +3617,9 @@
   <dimension ref="A1:G414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomLeft" activeCell="A407" sqref="A407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -10034,11 +10037,14 @@
       <c r="A407" s="4" t="s">
         <v>850</v>
       </c>
+      <c r="B407" s="4" t="s">
+        <v>851</v>
+      </c>
       <c r="D407" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E407" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F407" s="3" t="s">
         <v>230</v>
@@ -10046,13 +10052,13 @@
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="4" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>230</v>
@@ -10060,27 +10066,27 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E409" s="4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F409" s="3" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="4" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D410" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="E410" s="4" t="s">
         <v>858</v>
-      </c>
-      <c r="E410" s="4" t="s">
-        <v>857</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>230</v>
@@ -10088,13 +10094,13 @@
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D411" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="E411" s="4" t="s">
         <v>860</v>
-      </c>
-      <c r="E411" s="4" t="s">
-        <v>859</v>
       </c>
       <c r="F411" s="3" t="s">
         <v>333</v>
@@ -10102,14 +10108,14 @@
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="9" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C412" s="9"/>
       <c r="D412" s="9" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E412" s="9" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F412" s="3" t="s">
         <v>333</v>
@@ -10117,13 +10123,13 @@
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E413" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F413" s="3" t="s">
         <v>333</v>
@@ -10131,13 +10137,13 @@
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E414" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F414" s="3" t="s">
         <v>333</v>
@@ -10171,7 +10177,7 @@
         <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C1" t="s">
         <v>441</v>

--- a/src/【特征对照表】.xlsx
+++ b/src/【特征对照表】.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="867">
   <si>
     <t>JavDb</t>
   </si>
@@ -747,13 +747,10 @@
     <t>肛內中出</t>
   </si>
   <si>
+    <t>高挑</t>
+  </si>
+  <si>
     <t>高</t>
-  </si>
-  <si>
-    <t>个子高</t>
-  </si>
-  <si>
-    <t>個子高</t>
   </si>
   <si>
     <t>高中女生</t>
@@ -2627,9 +2624,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2657,12 +2654,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2670,8 +2668,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2685,24 +2700,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2724,17 +2724,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2746,14 +2745,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2762,14 +2753,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2777,17 +2776,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2802,13 +2799,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2820,25 +2823,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2850,7 +2853,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2868,19 +2889,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2898,25 +2925,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2928,61 +2979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2993,6 +2990,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3011,20 +3019,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3040,6 +3045,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3062,34 +3085,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3099,10 +3096,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3111,16 +3108,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3132,112 +3129,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3617,9 +3614,9 @@
   <dimension ref="A1:G414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A407" sqref="A407"/>
+      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -5109,58 +5106,58 @@
         <v>243</v>
       </c>
       <c r="B96" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="E96" s="9" t="s">
         <v>243</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="E97" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E98" s="9" t="s">
         <v>249</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>252</v>
-      </c>
       <c r="C99" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>31</v>
@@ -5171,338 +5168,338 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>254</v>
-      </c>
       <c r="C100" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D100" s="9" t="s">
-        <v>254</v>
-      </c>
       <c r="E100" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="C101" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>257</v>
-      </c>
       <c r="E101" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>261</v>
-      </c>
       <c r="C104" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D104" s="9" t="s">
-        <v>261</v>
-      </c>
       <c r="E104" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>263</v>
-      </c>
       <c r="C105" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D105" s="9" t="s">
-        <v>263</v>
-      </c>
       <c r="E105" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="C106" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D106" s="9" t="s">
+      <c r="E106" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="D107" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="E108" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="C109" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="E109" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="D110" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>280</v>
-      </c>
       <c r="D111" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="6"/>
       <c r="B112" s="9"/>
       <c r="C112" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="E112" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="C113" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>285</v>
-      </c>
       <c r="E113" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B114" s="9" t="s">
-        <v>287</v>
-      </c>
       <c r="C114" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="E116" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="6"/>
       <c r="B117" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="E117" s="9" t="s">
         <v>293</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>297</v>
-      </c>
       <c r="C119" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D119" s="9" t="s">
-        <v>297</v>
-      </c>
       <c r="E119" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>299</v>
-      </c>
       <c r="C120" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5524,19 +5521,19 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D122" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="E122" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="123" spans="2:5">
@@ -5555,30 +5552,30 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B124" s="9" t="s">
-        <v>303</v>
-      </c>
       <c r="C124" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D124" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D124" s="9" t="s">
-        <v>303</v>
-      </c>
       <c r="E124" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B125" s="9" t="s">
-        <v>305</v>
-      </c>
       <c r="C125" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>138</v>
@@ -5590,101 +5587,101 @@
     <row r="126" spans="1:5">
       <c r="A126" s="6"/>
       <c r="B126" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="E126" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B127" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="D127" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E127" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="C129" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D129" s="9" t="s">
+      <c r="E129" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B131" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D131" s="9" t="s">
-        <v>320</v>
-      </c>
       <c r="E131" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5706,541 +5703,541 @@
     </row>
     <row r="133" s="3" customFormat="1" spans="1:6">
       <c r="A133" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B133" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="C133" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D133" s="9" t="s">
+      <c r="E133" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="F133" s="9"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B134" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>326</v>
-      </c>
       <c r="C134" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D134" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="D134" s="9" t="s">
-        <v>326</v>
-      </c>
       <c r="E134" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B135" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="C135" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D135" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D135" s="9" t="s">
+      <c r="E135" s="9" t="s">
         <v>329</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="136" customFormat="1" spans="1:6">
       <c r="A136" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B136" s="9"/>
       <c r="C136" s="1"/>
       <c r="D136" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F136" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="137" s="3" customFormat="1" spans="1:6">
       <c r="A137" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F137" s="9"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="B138" s="9" t="s">
-        <v>335</v>
-      </c>
       <c r="C138" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D138" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="D138" s="9" t="s">
-        <v>335</v>
-      </c>
       <c r="E138" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="C139" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="D139" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D141" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="E141" s="9" t="s">
         <v>340</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D142" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="E142" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="6"/>
       <c r="B145" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E145" s="9" t="s">
         <v>347</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="146" s="3" customFormat="1" spans="1:6">
       <c r="A146" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="B146" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="C146" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D146" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="D146" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="E146" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F146" s="9"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="C147" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D147" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>353</v>
-      </c>
       <c r="E147" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="C148" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D148" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>356</v>
-      </c>
       <c r="E148" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F148" s="7"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B149" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B149" s="9" t="s">
-        <v>358</v>
-      </c>
       <c r="C149" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D149" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D149" s="9" t="s">
-        <v>358</v>
-      </c>
       <c r="E149" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="B150" s="9" t="s">
-        <v>360</v>
-      </c>
       <c r="C150" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D150" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="D150" s="9" t="s">
-        <v>360</v>
-      </c>
       <c r="E150" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B151" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="B151" s="9" t="s">
-        <v>362</v>
-      </c>
       <c r="C151" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D151" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="D151" s="9" t="s">
-        <v>362</v>
-      </c>
       <c r="E151" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B152" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B152" s="9" t="s">
-        <v>364</v>
-      </c>
       <c r="C152" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D152" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="D152" s="9" t="s">
-        <v>364</v>
-      </c>
       <c r="E152" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="C153" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E153" s="9" t="s">
         <v>366</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>367</v>
       </c>
       <c r="F153" s="7"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B155" s="9" t="s">
-        <v>370</v>
-      </c>
       <c r="C155" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D155" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="D155" s="9" t="s">
-        <v>370</v>
-      </c>
       <c r="E155" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>372</v>
-      </c>
       <c r="C156" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D156" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="D156" s="9" t="s">
-        <v>372</v>
-      </c>
       <c r="E156" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="C157" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D157" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D157" s="9" t="s">
+      <c r="E157" s="9" t="s">
         <v>375</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B158" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="C158" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D158" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D158" s="9" t="s">
+      <c r="E158" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="6"/>
       <c r="B159" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F160" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B161" s="9" t="s">
-        <v>386</v>
-      </c>
       <c r="C161" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D161" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="D161" s="9" t="s">
-        <v>386</v>
-      </c>
       <c r="E161" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B162" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="C162" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D162" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D162" s="9" t="s">
+      <c r="E162" s="9" t="s">
         <v>389</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B164" s="9"/>
       <c r="C164" s="1"/>
       <c r="D164" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>230</v>
@@ -6248,15 +6245,15 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B165" s="9"/>
       <c r="C165" s="1"/>
       <c r="D165" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>230</v>
@@ -6264,210 +6261,210 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B169" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="B169" s="9" t="s">
-        <v>398</v>
-      </c>
       <c r="C169" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D169" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="D169" s="9" t="s">
-        <v>398</v>
-      </c>
       <c r="E169" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F169" s="7"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="6"/>
       <c r="B170" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E170" s="9" t="s">
         <v>400</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="E170" s="9" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B171" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="B171" s="9" t="s">
-        <v>403</v>
-      </c>
       <c r="C171" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D171" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="D171" s="9" t="s">
-        <v>403</v>
-      </c>
       <c r="E171" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B172" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="B172" s="9" t="s">
-        <v>405</v>
-      </c>
       <c r="C172" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D172" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="D172" s="9" t="s">
-        <v>405</v>
-      </c>
       <c r="E172" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B173" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="C173" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D173" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D173" s="9" t="s">
-        <v>408</v>
-      </c>
       <c r="E173" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B175" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="B175" s="9" t="s">
-        <v>411</v>
-      </c>
       <c r="C175" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D175" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="D175" s="9" t="s">
-        <v>411</v>
-      </c>
       <c r="E175" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="6"/>
       <c r="B177" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="E177" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="E177" s="9" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B178" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="B178" s="9" t="s">
-        <v>418</v>
-      </c>
       <c r="C178" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>130</v>
@@ -6478,177 +6475,177 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B179" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="B179" s="9" t="s">
-        <v>420</v>
-      </c>
       <c r="C179" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D179" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D179" s="9" t="s">
-        <v>420</v>
-      </c>
       <c r="E179" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="E180" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="6"/>
       <c r="B181" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E181" s="9" t="s">
         <v>424</v>
-      </c>
-      <c r="D181" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="E181" s="9" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B182" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="B182" s="9" t="s">
-        <v>427</v>
-      </c>
       <c r="C182" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D182" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="D182" s="9" t="s">
-        <v>427</v>
-      </c>
       <c r="E182" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B184" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="C184" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D184" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D184" s="9" t="s">
-        <v>431</v>
-      </c>
       <c r="E184" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B185" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B185" s="9" t="s">
-        <v>433</v>
-      </c>
       <c r="C185" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D185" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="D185" s="9" t="s">
-        <v>433</v>
-      </c>
       <c r="E185" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="6"/>
       <c r="B187" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D188" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="B188" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D188" s="9" t="s">
+      <c r="E188" s="9" t="s">
         <v>437</v>
-      </c>
-      <c r="E188" s="9" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B189" s="9"/>
       <c r="C189" s="1"/>
       <c r="D189" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>230</v>
@@ -6656,126 +6653,126 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B190" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>440</v>
-      </c>
       <c r="D190" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B192" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="C192" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D192" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D192" s="9" t="s">
-        <v>444</v>
-      </c>
       <c r="E192" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="6"/>
       <c r="B193" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="D193" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B194" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="B194" s="9" t="s">
-        <v>448</v>
-      </c>
       <c r="C194" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D194" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="D194" s="9" t="s">
-        <v>448</v>
-      </c>
       <c r="E194" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B195" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="C195" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D195" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D195" s="9" t="s">
+      <c r="E195" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="E195" s="9" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B197" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B197" s="9" t="s">
-        <v>457</v>
-      </c>
       <c r="C197" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>144</v>
@@ -6786,113 +6783,113 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B198" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="B198" s="9" t="s">
-        <v>459</v>
-      </c>
       <c r="C198" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D198" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="D198" s="9" t="s">
-        <v>459</v>
-      </c>
       <c r="E198" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B200" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="C200" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="D200" s="9" t="s">
-        <v>464</v>
-      </c>
       <c r="E200" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B201" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="B201" s="9" t="s">
-        <v>466</v>
-      </c>
       <c r="C201" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D201" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="D201" s="9" t="s">
-        <v>466</v>
-      </c>
       <c r="E201" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B202" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="C202" s="1" t="s">
+      <c r="D202" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="D202" s="9" t="s">
-        <v>469</v>
-      </c>
       <c r="E202" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="6"/>
       <c r="B203" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="D203" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="E203" s="9" t="s">
         <v>470</v>
-      </c>
-      <c r="E203" s="9" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>232</v>
@@ -6903,94 +6900,94 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="E205" s="9" t="s">
         <v>473</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="E205" s="9" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="6"/>
       <c r="B206" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="D206" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="E206" s="9" t="s">
         <v>475</v>
-      </c>
-      <c r="E206" s="9" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B207" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="B207" s="9" t="s">
-        <v>478</v>
-      </c>
       <c r="C207" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B208" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="D208" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B209" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="C209" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D209" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D209" s="9" t="s">
-        <v>483</v>
-      </c>
       <c r="E209" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="6"/>
       <c r="B210" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>7</v>
@@ -7001,168 +6998,168 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B211" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="C211" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D211" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D211" s="9" t="s">
+      <c r="E211" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="E211" s="9" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B213" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="B213" s="9" t="s">
-        <v>491</v>
-      </c>
       <c r="C213" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D213" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="D213" s="9" t="s">
-        <v>491</v>
-      </c>
       <c r="E213" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B214" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="C214" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D214" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D214" s="9" t="s">
+      <c r="E214" s="9" t="s">
         <v>494</v>
-      </c>
-      <c r="E214" s="9" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B215" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="D215" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B216" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="B216" s="9" t="s">
-        <v>499</v>
-      </c>
       <c r="C216" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D216" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="D216" s="9" t="s">
-        <v>499</v>
-      </c>
       <c r="E216" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B217" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="B217" s="9" t="s">
-        <v>501</v>
-      </c>
       <c r="C217" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D217" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="D217" s="9" t="s">
-        <v>501</v>
-      </c>
       <c r="E217" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B219" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="C219" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="D219" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B220" s="9"/>
       <c r="C220" s="1"/>
       <c r="D220" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>230</v>
@@ -7170,158 +7167,158 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="6"/>
       <c r="B224" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="D224" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="E224" s="9" t="s">
         <v>511</v>
-      </c>
-      <c r="D224" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="E224" s="9" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B225" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="B225" s="9" t="s">
-        <v>514</v>
-      </c>
       <c r="C225" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D225" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="D225" s="9" t="s">
-        <v>514</v>
-      </c>
       <c r="E225" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="6"/>
       <c r="B226" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="E226" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="E226" s="9" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="6"/>
       <c r="B227" s="9"/>
       <c r="C227" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D227" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="D227" s="9" t="s">
+      <c r="E227" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B228" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="C228" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D228" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D228" s="9" t="s">
+      <c r="E228" s="9" t="s">
         <v>523</v>
-      </c>
-      <c r="E228" s="9" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B230" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="B230" s="9" t="s">
-        <v>527</v>
-      </c>
       <c r="C230" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>232</v>
@@ -7333,123 +7330,123 @@
     <row r="231" spans="1:5">
       <c r="A231" s="6"/>
       <c r="B231" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="D231" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="E231" s="9" t="s">
         <v>528</v>
-      </c>
-      <c r="E231" s="9" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D232" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="E232" s="9" t="s">
         <v>530</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D232" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="E232" s="9" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="6"/>
       <c r="B234" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="D234" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B235" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="B235" s="9" t="s">
-        <v>536</v>
-      </c>
       <c r="C235" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D235" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="D235" s="9" t="s">
-        <v>536</v>
-      </c>
       <c r="E235" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B236" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="B236" s="9" t="s">
-        <v>538</v>
-      </c>
       <c r="C236" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D236" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="D236" s="9" t="s">
-        <v>538</v>
-      </c>
       <c r="E236" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>7</v>
@@ -7460,53 +7457,53 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D239" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="B239" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D239" s="9" t="s">
+      <c r="E239" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="E239" s="9" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="240" spans="2:5">
       <c r="B240" s="9"/>
       <c r="C240" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D240" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="D240" s="9" t="s">
+      <c r="E240" s="9" t="s">
         <v>545</v>
-      </c>
-      <c r="E240" s="9" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="6"/>
       <c r="B241" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D241" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="E241" s="9" t="s">
         <v>548</v>
-      </c>
-      <c r="D241" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="E241" s="9" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="6"/>
       <c r="B242" s="9"/>
       <c r="C242" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>7</v>
@@ -7517,228 +7514,228 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B243" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="B243" s="9" t="s">
-        <v>552</v>
-      </c>
       <c r="C243" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D243" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="D243" s="9" t="s">
-        <v>552</v>
-      </c>
       <c r="E243" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B246" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="B246" s="9" t="s">
+      <c r="C246" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="D246" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D247" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="B247" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D247" s="9" t="s">
+      <c r="E247" s="9" t="s">
         <v>559</v>
-      </c>
-      <c r="E247" s="9" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B248" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="B248" s="9" t="s">
-        <v>562</v>
-      </c>
       <c r="C248" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D252" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="B252" s="9" t="s">
+      <c r="E252" s="9" t="s">
         <v>566</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D252" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="E252" s="9" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D253" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="E253" s="9" t="s">
         <v>568</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="E253" s="9" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="255" spans="2:6">
       <c r="B255" s="9"/>
       <c r="C255" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D255" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E255" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F255" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="D255" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E255" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="9"/>
       <c r="B256" s="9"/>
       <c r="C256" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>77</v>
@@ -7747,117 +7744,117 @@
         <v>78</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B257" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="B257" s="9" t="s">
+      <c r="C257" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D257" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="E257" s="9" t="s">
         <v>574</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D257" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="E257" s="9" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B258" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="B258" s="9" t="s">
-        <v>577</v>
-      </c>
       <c r="C258" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B259" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="B259" s="9" t="s">
-        <v>579</v>
-      </c>
       <c r="C259" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B260" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="B260" s="9" t="s">
-        <v>581</v>
-      </c>
       <c r="C260" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D260" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="D260" s="9" t="s">
-        <v>581</v>
-      </c>
       <c r="E260" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B261" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B261" s="9" t="s">
+      <c r="C261" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D261" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="C261" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D261" s="9" t="s">
+      <c r="E261" s="9" t="s">
         <v>584</v>
-      </c>
-      <c r="E261" s="9" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="262" spans="2:6">
       <c r="B262" s="9"/>
       <c r="C262" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D262" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E262" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="E262" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="F262" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="6"/>
       <c r="B263" s="7"/>
       <c r="C263" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>7</v>
@@ -7868,42 +7865,42 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D264" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="B264" s="9" t="s">
+      <c r="E264" s="9" t="s">
         <v>588</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D264" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="E264" s="9" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B265" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="B265" s="9" t="s">
+      <c r="C265" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="D265" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="D265" s="9" t="s">
+      <c r="E265" s="9" t="s">
         <v>593</v>
-      </c>
-      <c r="E265" s="9" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="266" spans="2:5">
       <c r="B266" s="9"/>
       <c r="C266" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>7</v>
@@ -7915,16 +7912,16 @@
     <row r="267" spans="1:5">
       <c r="A267" s="6"/>
       <c r="B267" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="D267" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="D267" s="9" t="s">
+      <c r="E267" s="9" t="s">
         <v>598</v>
-      </c>
-      <c r="E267" s="9" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="268" spans="2:5">
@@ -7943,7 +7940,7 @@
       <c r="A269" s="9"/>
       <c r="B269" s="9"/>
       <c r="C269" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>84</v>
@@ -7955,134 +7952,134 @@
     <row r="270" spans="2:5">
       <c r="B270" s="9"/>
       <c r="C270" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B271" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="B271" s="9" t="s">
-        <v>603</v>
-      </c>
       <c r="C271" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D271" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="D271" s="9" t="s">
-        <v>603</v>
-      </c>
       <c r="E271" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="272" spans="2:5">
       <c r="B272" s="9"/>
       <c r="C272" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>605</v>
-      </c>
       <c r="E272" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="B273" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="B273" s="9" t="s">
-        <v>607</v>
-      </c>
       <c r="C273" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D273" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="D273" s="9" t="s">
-        <v>607</v>
-      </c>
       <c r="E273" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="9"/>
       <c r="B274" s="9"/>
       <c r="C274" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D274" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="D274" s="9" t="s">
+      <c r="E274" s="9" t="s">
         <v>609</v>
-      </c>
-      <c r="E274" s="9" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B275" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="C275" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D275" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D275" s="9" t="s">
+      <c r="E275" s="9" t="s">
         <v>613</v>
-      </c>
-      <c r="E275" s="9" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B276" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="B276" s="9" t="s">
+      <c r="C276" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D276" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="C276" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="D276" s="9" t="s">
+      <c r="E276" s="9" t="s">
         <v>617</v>
-      </c>
-      <c r="E276" s="9" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B277" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="B277" s="9" t="s">
+      <c r="C277" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D277" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="C277" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="D277" s="9" t="s">
+      <c r="E277" s="9" t="s">
         <v>621</v>
-      </c>
-      <c r="E277" s="9" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B278" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="B278" s="9" t="s">
-        <v>624</v>
-      </c>
       <c r="C278" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>7</v>
@@ -8093,256 +8090,256 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B279" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="B279" s="9" t="s">
+      <c r="C279" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="D279" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="D279" s="9" t="s">
+      <c r="E279" s="9" t="s">
         <v>628</v>
-      </c>
-      <c r="E279" s="9" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B280" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="B280" s="9" t="s">
-        <v>631</v>
-      </c>
       <c r="C280" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D280" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="D280" s="9" t="s">
-        <v>631</v>
-      </c>
       <c r="E280" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="281" spans="2:5">
       <c r="B281" s="9"/>
       <c r="C281" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="B282" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="B282" s="9" t="s">
-        <v>634</v>
-      </c>
       <c r="C282" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D282" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="D282" s="9" t="s">
-        <v>634</v>
-      </c>
       <c r="E282" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B283" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="B283" s="9" t="s">
-        <v>636</v>
-      </c>
       <c r="C283" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D283" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="D283" s="9" t="s">
-        <v>636</v>
-      </c>
       <c r="E283" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="9"/>
       <c r="B284" s="9"/>
       <c r="C284" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D284" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>638</v>
-      </c>
       <c r="E284" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="B285" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="B285" s="9" t="s">
-        <v>640</v>
-      </c>
       <c r="C285" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D285" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="D285" s="9" t="s">
-        <v>640</v>
-      </c>
       <c r="E285" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="B286" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="B286" s="9" t="s">
+      <c r="C286" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D286" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="C286" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D286" s="9" t="s">
-        <v>643</v>
-      </c>
       <c r="E286" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B287" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="B287" s="9" t="s">
-        <v>645</v>
-      </c>
       <c r="C287" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D287" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="D287" s="9" t="s">
-        <v>645</v>
-      </c>
       <c r="E287" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="288" spans="2:5">
       <c r="B288" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="D288" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="D288" s="9" t="s">
+      <c r="E288" s="9" t="s">
         <v>648</v>
-      </c>
-      <c r="E288" s="9" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B289" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="B289" s="9" t="s">
-        <v>651</v>
-      </c>
       <c r="C289" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D289" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="D289" s="9" t="s">
-        <v>651</v>
-      </c>
       <c r="E289" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B290" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="B290" s="9" t="s">
-        <v>653</v>
-      </c>
       <c r="C290" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D290" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="D290" s="9" t="s">
-        <v>653</v>
-      </c>
       <c r="E290" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="9"/>
       <c r="B291" s="9"/>
       <c r="C291" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D291" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="E291" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="B292" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="B292" s="9" t="s">
+      <c r="C292" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="D292" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="D292" s="9" t="s">
-        <v>660</v>
-      </c>
       <c r="E292" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="6"/>
       <c r="B293" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C293" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="D293" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E293" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="B294" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="B294" s="9" t="s">
-        <v>664</v>
-      </c>
       <c r="C294" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D294" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="D294" s="9" t="s">
-        <v>664</v>
-      </c>
       <c r="E294" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8365,101 +8362,101 @@
     <row r="296" spans="1:5">
       <c r="A296" s="6"/>
       <c r="B296" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="D296" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="D296" s="9" t="s">
-        <v>667</v>
-      </c>
       <c r="E296" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B297" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="B297" s="9" t="s">
+      <c r="C297" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D297" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="C297" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D297" s="9" t="s">
-        <v>670</v>
-      </c>
       <c r="E297" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E298" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E299" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E300" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8481,43 +8478,43 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B303" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="B303" s="9" t="s">
-        <v>676</v>
-      </c>
       <c r="C303" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D303" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="D303" s="9" t="s">
-        <v>676</v>
-      </c>
       <c r="E303" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E304" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="6"/>
       <c r="B305" s="9"/>
       <c r="C305" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>7</v>
@@ -8528,57 +8525,57 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E306" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="307" s="3" customFormat="1" spans="1:6">
       <c r="A307" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="B307" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="B307" s="9" t="s">
+      <c r="C307" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="D307" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="C307" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="D307" s="9" t="s">
+      <c r="E307" s="9" t="s">
         <v>682</v>
-      </c>
-      <c r="E307" s="9" t="s">
-        <v>683</v>
       </c>
       <c r="F307" s="9"/>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C308" s="9"/>
       <c r="D308" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E308" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="309" spans="2:5">
       <c r="B309" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C309" s="9"/>
       <c r="D309" s="9" t="s">
@@ -8590,22 +8587,22 @@
     </row>
     <row r="310" spans="2:5">
       <c r="B310" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C310" s="9"/>
       <c r="D310" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="E310" s="9" t="s">
         <v>609</v>
-      </c>
-      <c r="E310" s="9" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="B311" s="9" t="s">
         <v>687</v>
-      </c>
-      <c r="B311" s="9" t="s">
-        <v>688</v>
       </c>
       <c r="C311" s="9"/>
       <c r="D311" s="9" t="s">
@@ -8618,7 +8615,7 @@
     <row r="312" spans="1:5">
       <c r="A312" s="6"/>
       <c r="B312" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C312" s="9"/>
       <c r="D312" s="9" t="s">
@@ -8630,25 +8627,25 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C313" s="9"/>
       <c r="D313" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C314" s="9"/>
       <c r="D314" s="9" t="s">
@@ -8661,7 +8658,7 @@
     <row r="315" spans="1:5">
       <c r="A315" s="6"/>
       <c r="B315" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C315" s="9"/>
       <c r="D315" s="9" t="s">
@@ -8673,7 +8670,7 @@
     </row>
     <row r="316" spans="2:5">
       <c r="B316" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C316" s="9"/>
       <c r="D316" s="9" t="s">
@@ -8685,10 +8682,10 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B317" s="9" t="s">
         <v>694</v>
-      </c>
-      <c r="B317" s="9" t="s">
-        <v>695</v>
       </c>
       <c r="C317" s="9"/>
       <c r="D317" s="9" t="s">
@@ -8700,52 +8697,52 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B318" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B318" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>697</v>
-      </c>
       <c r="D318" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="B319" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="B319" s="9" t="s">
-        <v>699</v>
       </c>
       <c r="C319" s="9"/>
       <c r="D319" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E319" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="320" spans="2:5">
       <c r="B320" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C320" s="9"/>
       <c r="D320" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="E320" s="9" t="s">
         <v>700</v>
-      </c>
-      <c r="E320" s="9" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="9"/>
       <c r="B321" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C321" s="9"/>
       <c r="D321" s="9" t="s">
@@ -8757,10 +8754,10 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B322" s="9" t="s">
         <v>703</v>
-      </c>
-      <c r="B322" s="9" t="s">
-        <v>704</v>
       </c>
       <c r="C322" s="9"/>
       <c r="D322" s="9" t="s">
@@ -8772,38 +8769,38 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B323" s="9" t="s">
         <v>705</v>
-      </c>
-      <c r="B323" s="9" t="s">
-        <v>706</v>
       </c>
       <c r="C323" s="9"/>
       <c r="D323" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E323" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="6"/>
       <c r="B324" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C324" s="9"/>
       <c r="D324" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="E324" s="9" t="s">
         <v>707</v>
-      </c>
-      <c r="E324" s="9" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="B325" s="9" t="s">
         <v>709</v>
-      </c>
-      <c r="B325" s="9" t="s">
-        <v>710</v>
       </c>
       <c r="C325" s="9"/>
       <c r="D325" s="9" t="s">
@@ -8815,25 +8812,25 @@
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="B326" s="9" t="s">
         <v>711</v>
-      </c>
-      <c r="B326" s="9" t="s">
-        <v>712</v>
       </c>
       <c r="C326" s="9"/>
       <c r="D326" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C327" s="9"/>
       <c r="D327" s="9" t="s">
@@ -8861,7 +8858,7 @@
     <row r="329" spans="1:5">
       <c r="A329" s="6"/>
       <c r="B329" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C329" s="1"/>
       <c r="D329" s="1" t="s">
@@ -8874,7 +8871,7 @@
     <row r="330" spans="1:5">
       <c r="A330" s="6"/>
       <c r="B330" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="1" t="s">
@@ -8886,7 +8883,7 @@
     </row>
     <row r="331" spans="2:5">
       <c r="B331" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C331" s="9"/>
       <c r="D331" s="9" t="s">
@@ -8899,81 +8896,81 @@
     <row r="332" spans="1:5">
       <c r="A332" s="6"/>
       <c r="B332" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C332" s="9"/>
       <c r="D332" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E332" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="E332" s="9" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="B333" s="9" t="s">
         <v>718</v>
-      </c>
-      <c r="B333" s="9" t="s">
-        <v>719</v>
       </c>
       <c r="C333" s="9"/>
       <c r="D333" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B334" s="9" t="s">
         <v>720</v>
-      </c>
-      <c r="B334" s="9" t="s">
-        <v>721</v>
       </c>
       <c r="C334" s="9"/>
       <c r="D334" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E334" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C335" s="9"/>
       <c r="D335" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E335" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="6"/>
       <c r="B336" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C336" s="9"/>
       <c r="D336" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="E336" s="9" t="s">
         <v>723</v>
-      </c>
-      <c r="E336" s="9" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="6"/>
       <c r="B337" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>726</v>
       </c>
       <c r="D337" s="9" t="s">
         <v>151</v>
@@ -8984,35 +8981,35 @@
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B338" s="9"/>
       <c r="C338" s="1"/>
       <c r="D338" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="E338" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="F338" s="3" t="s">
         <v>728</v>
-      </c>
-      <c r="E338" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="F338" s="3" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="B339" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="B339" s="9" t="s">
+      <c r="C339" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C339" s="1" t="s">
-        <v>732</v>
-      </c>
       <c r="D339" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E339" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -9030,25 +9027,25 @@
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="B341" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="B341" s="9" t="s">
+      <c r="C341" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C341" s="1" t="s">
-        <v>735</v>
-      </c>
       <c r="D341" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E341" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="6"/>
       <c r="B342" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C342" s="9"/>
       <c r="D342" s="9" t="s">
@@ -9060,85 +9057,85 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="B343" s="9" t="s">
         <v>737</v>
-      </c>
-      <c r="B343" s="9" t="s">
-        <v>738</v>
       </c>
       <c r="C343" s="9"/>
       <c r="D343" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="B344" s="9" t="s">
         <v>739</v>
-      </c>
-      <c r="B344" s="9" t="s">
-        <v>740</v>
       </c>
       <c r="C344" s="9"/>
       <c r="D344" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E344" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C345" s="9"/>
       <c r="D345" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="E345" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="E345" s="9" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C346" s="9"/>
       <c r="D346" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E346" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B347" s="9" t="s">
         <v>742</v>
-      </c>
-      <c r="B347" s="9" t="s">
-        <v>743</v>
       </c>
       <c r="C347" s="9"/>
       <c r="D347" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="E347" s="9" t="s">
         <v>744</v>
-      </c>
-      <c r="E347" s="9" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="B348" s="9" t="s">
         <v>746</v>
-      </c>
-      <c r="B348" s="9" t="s">
-        <v>747</v>
       </c>
       <c r="C348" s="9"/>
       <c r="D348" s="9" t="s">
@@ -9150,25 +9147,25 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="B349" s="9" t="s">
         <v>748</v>
-      </c>
-      <c r="B349" s="9" t="s">
-        <v>749</v>
       </c>
       <c r="C349" s="9"/>
       <c r="D349" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E349" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="B350" s="9" t="s">
         <v>750</v>
-      </c>
-      <c r="B350" s="9" t="s">
-        <v>751</v>
       </c>
       <c r="C350" s="9"/>
       <c r="D350" s="9" t="s">
@@ -9180,37 +9177,37 @@
     </row>
     <row r="351" spans="2:5">
       <c r="B351" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C351" s="9"/>
       <c r="D351" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E351" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C352" s="9"/>
       <c r="D352" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="E352" s="9" t="s">
         <v>755</v>
-      </c>
-      <c r="E352" s="9" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="B353" s="9" t="s">
         <v>757</v>
-      </c>
-      <c r="B353" s="9" t="s">
-        <v>758</v>
       </c>
       <c r="C353" s="9"/>
       <c r="D353" s="9" t="s">
@@ -9222,70 +9219,70 @@
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="B354" s="9" t="s">
         <v>759</v>
-      </c>
-      <c r="B354" s="9" t="s">
-        <v>760</v>
       </c>
       <c r="C354" s="9"/>
       <c r="D354" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E354" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="B355" s="9" t="s">
         <v>761</v>
-      </c>
-      <c r="B355" s="9" t="s">
-        <v>762</v>
       </c>
       <c r="C355" s="9"/>
       <c r="D355" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E355" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C356" s="9"/>
       <c r="D356" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E356" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="B357" s="9" t="s">
         <v>764</v>
-      </c>
-      <c r="B357" s="9" t="s">
-        <v>765</v>
       </c>
       <c r="C357" s="9"/>
       <c r="D357" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E357" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="B358" s="9" t="s">
         <v>766</v>
-      </c>
-      <c r="B358" s="9" t="s">
-        <v>767</v>
       </c>
       <c r="C358" s="9"/>
       <c r="D358" s="9" t="s">
@@ -9298,7 +9295,7 @@
     <row r="359" spans="1:5">
       <c r="A359" s="6"/>
       <c r="B359" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C359" s="9"/>
       <c r="D359" s="9" t="s">
@@ -9310,10 +9307,10 @@
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C360" s="9"/>
       <c r="D360" s="9" t="s">
@@ -9325,42 +9322,42 @@
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C361" s="9"/>
       <c r="D361" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E361" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="6"/>
       <c r="B362" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C362" s="9"/>
       <c r="D362" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="E362" s="9" t="s">
         <v>772</v>
-      </c>
-      <c r="E362" s="9" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="363" spans="2:5">
       <c r="B363" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C363" s="9"/>
       <c r="D363" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="E363" s="9" t="s">
         <v>774</v>
-      </c>
-      <c r="E363" s="9" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9382,10 +9379,10 @@
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B365" s="9" t="s">
         <v>776</v>
-      </c>
-      <c r="B365" s="9" t="s">
-        <v>777</v>
       </c>
       <c r="C365" s="9"/>
       <c r="D365" s="9" t="s">
@@ -9397,73 +9394,73 @@
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="B366" s="9" t="s">
         <v>778</v>
-      </c>
-      <c r="B366" s="9" t="s">
-        <v>779</v>
       </c>
       <c r="C366" s="9"/>
       <c r="D366" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E366" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="B367" s="9" t="s">
         <v>780</v>
-      </c>
-      <c r="B367" s="9" t="s">
-        <v>781</v>
       </c>
       <c r="C367" s="9"/>
       <c r="D367" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E367" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C368" s="9"/>
       <c r="D368" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E368" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B369" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C369" s="9"/>
       <c r="D369" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E369" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C370" s="9"/>
       <c r="D370" s="9" t="s">
@@ -9475,55 +9472,55 @@
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="B371" s="9" t="s">
         <v>784</v>
-      </c>
-      <c r="B371" s="9" t="s">
-        <v>785</v>
       </c>
       <c r="C371" s="9"/>
       <c r="D371" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E371" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="6"/>
       <c r="B372" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C372" s="9"/>
       <c r="D372" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E372" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="B373" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="B373" s="9" t="s">
+      <c r="C373" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="C373" s="1" t="s">
-        <v>788</v>
-      </c>
       <c r="D373" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E373" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="B374" s="9" t="s">
         <v>789</v>
-      </c>
-      <c r="B374" s="9" t="s">
-        <v>790</v>
       </c>
       <c r="C374" s="9"/>
       <c r="D374" s="9" t="s">
@@ -9535,10 +9532,10 @@
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C375" s="9"/>
       <c r="D375" s="9" t="s">
@@ -9550,25 +9547,25 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C376" s="9"/>
       <c r="D376" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E376" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="B377" s="9" t="s">
         <v>792</v>
-      </c>
-      <c r="B377" s="9" t="s">
-        <v>793</v>
       </c>
       <c r="C377" s="9"/>
       <c r="D377" s="9" t="s">
@@ -9580,10 +9577,10 @@
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="B378" s="9" t="s">
         <v>794</v>
-      </c>
-      <c r="B378" s="9" t="s">
-        <v>795</v>
       </c>
       <c r="C378" s="9"/>
       <c r="D378" s="9" t="s">
@@ -9595,33 +9592,33 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="B379" s="9" t="s">
         <v>796</v>
-      </c>
-      <c r="B379" s="9" t="s">
-        <v>797</v>
       </c>
       <c r="C379" s="9"/>
       <c r="D379" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E379" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
       <c r="D380" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E380" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F380" s="3" t="s">
         <v>230</v>
@@ -9629,25 +9626,25 @@
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="B381" s="9" t="s">
         <v>800</v>
-      </c>
-      <c r="B381" s="9" t="s">
-        <v>801</v>
       </c>
       <c r="C381" s="9"/>
       <c r="D381" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E381" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="B382" s="9" t="s">
         <v>802</v>
-      </c>
-      <c r="B382" s="9" t="s">
-        <v>803</v>
       </c>
       <c r="C382" s="9"/>
       <c r="D382" s="9" t="s">
@@ -9660,7 +9657,7 @@
     <row r="383" spans="1:6">
       <c r="A383" s="6"/>
       <c r="B383" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C383" s="9"/>
       <c r="D383" s="9" t="s">
@@ -9670,28 +9667,28 @@
         <v>138</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B384" s="9" t="s">
         <v>805</v>
-      </c>
-      <c r="B384" s="9" t="s">
-        <v>806</v>
       </c>
       <c r="C384" s="9"/>
       <c r="D384" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E384" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="6"/>
       <c r="B385" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C385" s="9"/>
       <c r="D385" s="9" t="s">
@@ -9703,10 +9700,10 @@
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C386" s="9"/>
       <c r="D386" s="9" t="s">
@@ -9718,109 +9715,109 @@
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C387" s="9"/>
       <c r="D387" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E387" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="B388" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B388" s="9" t="s">
-        <v>810</v>
-      </c>
-      <c r="C388" s="1" t="s">
+      <c r="D388" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="D388" s="9" t="s">
+      <c r="E388" s="9" t="s">
         <v>812</v>
-      </c>
-      <c r="E388" s="9" t="s">
-        <v>813</v>
       </c>
       <c r="F388" s="7"/>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="6"/>
       <c r="B389" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C389" s="9"/>
       <c r="D389" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E389" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="390" s="3" customFormat="1" spans="1:6">
       <c r="A390" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="B390" s="9" t="s">
         <v>815</v>
-      </c>
-      <c r="B390" s="9" t="s">
-        <v>816</v>
       </c>
       <c r="C390" s="9"/>
       <c r="D390" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E390" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F390" s="9"/>
     </row>
     <row r="391" s="3" customFormat="1" spans="1:6">
       <c r="A391" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
       <c r="D391" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="E391" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="E391" s="9" t="s">
+      <c r="F391" s="6" t="s">
         <v>819</v>
-      </c>
-      <c r="F391" s="6" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="392" s="3" customFormat="1" spans="1:6">
       <c r="A392" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
       <c r="D392" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="E392" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="F392" s="3" t="s">
         <v>822</v>
-      </c>
-      <c r="E392" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="F392" s="3" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="393" s="3" customFormat="1" spans="1:6">
       <c r="A393" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
       <c r="D393" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E393" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F393" s="3" t="s">
         <v>230</v>
@@ -9828,67 +9825,67 @@
     </row>
     <row r="394" s="3" customFormat="1" spans="1:6">
       <c r="A394" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
       <c r="D394" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E394" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F394" s="7"/>
     </row>
     <row r="395" s="3" customFormat="1" spans="1:6">
       <c r="A395" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
       <c r="D395" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="E395" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="F395" s="6" t="s">
         <v>827</v>
-      </c>
-      <c r="E395" s="9" t="s">
-        <v>826</v>
-      </c>
-      <c r="F395" s="6" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="396" s="3" customFormat="1" spans="1:6">
       <c r="A396" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
       <c r="D396" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E396" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F396" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D397" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E397" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F397" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B398" s="7"/>
       <c r="D398" s="9" t="s">
@@ -9898,19 +9895,19 @@
         <v>7</v>
       </c>
       <c r="F398" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="9" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B399" s="7"/>
       <c r="D399" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="E399" s="9" t="s">
         <v>835</v>
-      </c>
-      <c r="E399" s="9" t="s">
-        <v>836</v>
       </c>
       <c r="F399" s="6" t="s">
         <v>230</v>
@@ -9918,17 +9915,17 @@
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="9" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B400" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C400" s="7"/>
       <c r="D400" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="E400" s="9" t="s">
         <v>835</v>
-      </c>
-      <c r="E400" s="9" t="s">
-        <v>836</v>
       </c>
       <c r="F400" s="6" t="s">
         <v>230</v>
@@ -9936,16 +9933,16 @@
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E401" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F401" s="3" t="s">
         <v>230</v>
@@ -9953,36 +9950,36 @@
     </row>
     <row r="402" spans="1:7">
       <c r="A402" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D402" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="E402" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="F402" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="B402" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="D402" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="E402" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="F402" s="3" t="s">
+      <c r="G402" s="3" t="s">
         <v>839</v>
-      </c>
-      <c r="G402" s="3" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E403" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F403" s="3" t="s">
         <v>230</v>
@@ -9990,44 +9987,44 @@
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="D404" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E404" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F404" s="3" t="s">
         <v>842</v>
-      </c>
-      <c r="B404" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="D404" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E404" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F404" s="3" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="405" spans="3:6">
       <c r="C405" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D405" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="D405" s="1" t="s">
+      <c r="E405" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F405" s="3" t="s">
         <v>845</v>
-      </c>
-      <c r="E405" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="F405" s="3" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="D406" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="D406" s="4" t="s">
+      <c r="E406" s="4" t="s">
         <v>848</v>
-      </c>
-      <c r="E406" s="4" t="s">
-        <v>849</v>
       </c>
       <c r="F406" s="3" t="s">
         <v>230</v>
@@ -10035,16 +10032,16 @@
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="B407" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="B407" s="4" t="s">
+      <c r="D407" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="D407" s="4" t="s">
-        <v>852</v>
-      </c>
       <c r="E407" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F407" s="3" t="s">
         <v>230</v>
@@ -10052,13 +10049,13 @@
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="D408" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="D408" s="4" t="s">
+      <c r="E408" s="4" t="s">
         <v>854</v>
-      </c>
-      <c r="E408" s="4" t="s">
-        <v>855</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>230</v>
@@ -10066,27 +10063,27 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="D409" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="E409" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="F409" s="3" t="s">
         <v>856</v>
-      </c>
-      <c r="D409" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="E409" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="F409" s="3" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="D410" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="D410" s="4" t="s">
-        <v>859</v>
-      </c>
       <c r="E410" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>230</v>
@@ -10094,59 +10091,59 @@
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="D411" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="D411" s="4" t="s">
-        <v>861</v>
-      </c>
       <c r="E411" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C412" s="9"/>
       <c r="D412" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E412" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F412" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E413" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F413" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="D414" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="D414" s="4" t="s">
+      <c r="E414" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="E414" s="4" t="s">
-        <v>866</v>
-      </c>
       <c r="F414" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -10177,10 +10174,10 @@
         <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -10202,12 +10199,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>

--- a/src/【特征对照表】.xlsx
+++ b/src/【特征对照表】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12995"/>
+    <workbookView windowWidth="16991" windowHeight="13595"/>
   </bookViews>
   <sheets>
     <sheet name="有码" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="869">
   <si>
     <t>JavDb</t>
   </si>
@@ -735,12 +735,15 @@
     <t>蒙面</t>
   </si>
   <si>
+    <t>肛門・肛交</t>
+  </si>
+  <si>
+    <t>肛交</t>
+  </si>
+  <si>
     <t>肛门</t>
   </si>
   <si>
-    <t>肛交</t>
-  </si>
-  <si>
     <t>肛内中出</t>
   </si>
   <si>
@@ -2614,6 +2617,9 @@
   </si>
   <si>
     <t>女優手淫</t>
+  </si>
+  <si>
+    <t>高跟鞋</t>
   </si>
   <si>
     <t>重新整理</t>
@@ -2624,10 +2630,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2647,46 +2653,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2700,7 +2674,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2730,18 +2711,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2763,7 +2745,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2799,49 +2805,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2853,19 +2817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2883,7 +2835,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2895,61 +2943,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2973,13 +2967,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2990,17 +2996,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3015,21 +3010,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3054,6 +3034,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3096,10 +3102,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3108,133 +3114,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3611,12 +3617,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G414"/>
+  <dimension ref="A1:G416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -5071,56 +5077,55 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>240</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="B94" s="9"/>
+      <c r="C94" s="1"/>
       <c r="D94" s="9" t="s">
         <v>240</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>240</v>
       </c>
+      <c r="F94" s="3" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
+      <c r="A95" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>240</v>
+      </c>
       <c r="C95" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E95" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="9" t="s">
+      <c r="D96" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B96" s="9" t="s">
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>245</v>
@@ -5129,86 +5134,86 @@
         <v>245</v>
       </c>
       <c r="D97" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="B98" s="9" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98" s="9" t="s">
-        <v>247</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>247</v>
       </c>
       <c r="E98" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="4" t="s">
+      <c r="D99" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E99" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="C100" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D100" s="9" t="s">
+      <c r="B101" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E100" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="9" t="s">
+      <c r="D101" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="E101" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D101" s="9" t="s">
+      <c r="B102" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E101" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>257</v>
-      </c>
       <c r="C102" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>257</v>
@@ -5218,7 +5223,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B103" s="9" t="s">
@@ -5239,13 +5244,13 @@
         <v>259</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>259</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>259</v>
@@ -5253,213 +5258,213 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>262</v>
-      </c>
       <c r="C105" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D105" s="9" t="s">
-        <v>262</v>
-      </c>
       <c r="E105" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B106" s="9" t="s">
-        <v>264</v>
-      </c>
       <c r="C106" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D106" s="9" t="s">
-        <v>265</v>
-      </c>
       <c r="E106" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
+      <c r="A108" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>268</v>
+      </c>
       <c r="C108" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="9" t="s">
+      <c r="D109" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>275</v>
+      <c r="E109" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="D111" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="B112" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E112" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E111" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="6"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D112" s="1" t="s">
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="6"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="9" t="s">
+      <c r="D113" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="E113" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D113" s="9" t="s">
+      <c r="B114" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E113" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="4" t="s">
+      <c r="C114" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
+      <c r="A115" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="C115" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>289</v>
+      <c r="D115" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D116" s="1" t="s">
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="6"/>
-      <c r="B117" s="9" t="s">
+      <c r="D117" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D117" s="9" t="s">
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="6"/>
+      <c r="B118" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="C118" s="1" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>294</v>
@@ -5473,13 +5478,13 @@
         <v>295</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>295</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>295</v>
@@ -5487,150 +5492,150 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>298</v>
-      </c>
       <c r="C120" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="9" t="s">
-        <v>122</v>
+        <v>298</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>122</v>
+        <v>299</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>122</v>
+        <v>299</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>122</v>
+        <v>299</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>122</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="9" t="s">
-        <v>299</v>
+        <v>122</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>299</v>
+        <v>122</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>299</v>
+        <v>122</v>
       </c>
       <c r="D122" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="B123" s="9" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="123" spans="2:5">
-      <c r="B123" s="9" t="s">
+      <c r="C123" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D124" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E124" s="9" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="C125" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="6"/>
       <c r="B126" s="9" t="s">
         <v>305</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="6"/>
+      <c r="B127" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="C127" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="D127" s="9" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="4" t="s">
+      <c r="E127" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B127" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C127" s="1" t="s">
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D127" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="9" t="s">
-        <v>311</v>
-      </c>
       <c r="B128" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>311</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5638,30 +5643,30 @@
         <v>312</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>312</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>316</v>
@@ -5675,158 +5680,158 @@
         <v>317</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B133" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D133" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="E133" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="133" s="3" customFormat="1" spans="1:6">
-      <c r="A133" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="B133" s="9" t="s">
+    <row r="134" s="3" customFormat="1" spans="1:6">
+      <c r="A134" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D133" s="9" t="s">
+      <c r="B134" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="C134" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D134" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="F133" s="9"/>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>325</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>324</v>
       </c>
+      <c r="F134" s="9"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B135" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="C135" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D135" s="9" t="s">
+      <c r="B136" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E135" s="9" t="s">
+      <c r="C136" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D136" s="9" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="136" customFormat="1" spans="1:6">
-      <c r="A136" s="9" t="s">
+      <c r="E136" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B136" s="9"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="137" s="3" customFormat="1" spans="1:6">
+    </row>
+    <row r="137" customFormat="1" spans="1:6">
       <c r="A137" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B137" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>331</v>
-      </c>
+      <c r="B137" s="9"/>
+      <c r="C137" s="1"/>
       <c r="D137" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="F137" s="9"/>
-    </row>
-    <row r="138" spans="1:5">
+        <v>332</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="138" s="3" customFormat="1" spans="1:6">
       <c r="A138" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>333</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="F138" s="9"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="B139" s="9" t="s">
-        <v>336</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>338</v>
@@ -5839,7 +5844,7 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="9" t="s">
         <v>339</v>
       </c>
       <c r="B141" s="9" t="s">
@@ -5849,38 +5854,38 @@
         <v>339</v>
       </c>
       <c r="D141" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E141" s="9" t="s">
+      <c r="B142" s="9" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="9" t="s">
+      <c r="C142" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D142" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="E142" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D142" s="9" t="s">
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="E142" s="9" t="s">
+      <c r="B143" s="9" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>343</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>343</v>
@@ -5890,7 +5895,7 @@
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="4" t="s">
         <v>344</v>
       </c>
       <c r="B144" s="9" t="s">
@@ -5907,188 +5912,188 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="6"/>
+      <c r="A145" s="9" t="s">
+        <v>345</v>
+      </c>
       <c r="B145" s="9" t="s">
         <v>345</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>345</v>
       </c>
       <c r="E145" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="6"/>
+      <c r="B146" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="146" s="3" customFormat="1" spans="1:6">
-      <c r="A146" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="D146" s="9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="F146" s="9"/>
-    </row>
-    <row r="147" spans="1:5">
+    </row>
+    <row r="147" s="3" customFormat="1" spans="1:6">
       <c r="A147" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="C147" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="F147" s="9"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D147" s="9" t="s">
+      <c r="B148" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="E147" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="9" t="s">
+      <c r="C148" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D148" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="E148" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D148" s="9" t="s">
+      <c r="B149" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E148" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="F148" s="7"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="9" t="s">
+      <c r="C149" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D149" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>356</v>
       </c>
+      <c r="F149" s="7"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="B150" s="9" t="s">
-        <v>359</v>
-      </c>
       <c r="C150" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D150" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="D150" s="9" t="s">
-        <v>359</v>
-      </c>
       <c r="E150" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B151" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="C151" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D151" s="9" t="s">
+      <c r="B152" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E151" s="9" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="4" t="s">
+      <c r="D152" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="E152" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D152" s="9" t="s">
+      <c r="B153" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E152" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="9" t="s">
+      <c r="D153" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="E153" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D153" s="9" t="s">
+      <c r="B154" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E153" s="9" t="s">
+      <c r="D154" s="9" t="s">
         <v>366</v>
-      </c>
-      <c r="F153" s="7"/>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>367</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>367</v>
       </c>
+      <c r="F154" s="7"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="9" t="s">
         <v>368</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>368</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>368</v>
@@ -6096,151 +6101,152 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>371</v>
-      </c>
       <c r="C156" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D156" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="D156" s="9" t="s">
-        <v>371</v>
-      </c>
       <c r="E156" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B157" s="9" t="s">
-        <v>373</v>
-      </c>
       <c r="C157" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D157" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="D157" s="9" t="s">
-        <v>374</v>
-      </c>
       <c r="E157" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E158" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B158" s="9" t="s">
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D158" s="9" t="s">
+      <c r="B159" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="E158" s="9" t="s">
+      <c r="C159" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D159" s="9" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="6"/>
-      <c r="B159" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>380</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
+    <row r="160" spans="1:5">
+      <c r="A160" s="6"/>
+      <c r="B160" s="9" t="s">
+        <v>381</v>
+      </c>
       <c r="C160" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F160" s="3" t="s">
+      <c r="D161" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E161" s="9" t="s">
+      <c r="E161" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F161" s="3" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B162" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="C162" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D162" s="9" t="s">
+      <c r="B163" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="E162" s="9" t="s">
+      <c r="C163" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D163" s="9" t="s">
         <v>389</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>390</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:5">
       <c r="A164" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B164" s="9"/>
-      <c r="C164" s="1"/>
+      <c r="B164" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="D164" s="9" t="s">
         <v>391</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>391</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -6250,34 +6256,33 @@
       <c r="B165" s="9"/>
       <c r="C165" s="1"/>
       <c r="D165" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:6">
       <c r="A166" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B166" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>393</v>
-      </c>
+      <c r="B166" s="9"/>
+      <c r="C166" s="1"/>
       <c r="D166" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="9" t="s">
+      <c r="A167" s="4" t="s">
         <v>394</v>
       </c>
       <c r="B167" s="9" t="s">
@@ -6294,7 +6299,7 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="9" t="s">
         <v>395</v>
       </c>
       <c r="B168" s="9" t="s">
@@ -6310,51 +6315,51 @@
         <v>395</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="9" t="s">
+    <row r="169" spans="1:5">
+      <c r="A169" s="4" t="s">
         <v>396</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="F169" s="7"/>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="6"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="9" t="s">
+        <v>397</v>
+      </c>
       <c r="B170" s="9" t="s">
         <v>398</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>398</v>
       </c>
       <c r="E170" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F170" s="7"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="6"/>
+      <c r="B171" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="D171" s="9" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>401</v>
@@ -6362,45 +6367,49 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B172" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="B172" s="9" t="s">
-        <v>404</v>
-      </c>
       <c r="C172" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D172" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D172" s="9" t="s">
-        <v>404</v>
-      </c>
       <c r="E172" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B173" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="C173" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D173" s="9" t="s">
+      <c r="B174" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="E173" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="9"/>
-      <c r="B174" s="9"/>
       <c r="C174" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D174" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D174" s="9" t="s">
         <v>408</v>
       </c>
       <c r="E174" s="9" t="s">
@@ -6408,17 +6417,13 @@
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>410</v>
-      </c>
+      <c r="A175" s="9"/>
+      <c r="B175" s="9"/>
       <c r="C175" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D175" s="9" t="s">
-        <v>410</v>
+      <c r="D175" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>409</v>
@@ -6426,110 +6431,110 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>411</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>411</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="6"/>
+      <c r="A177" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="B177" s="9" t="s">
         <v>412</v>
       </c>
       <c r="C177" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="6"/>
+      <c r="B178" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="C178" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E177" s="9" t="s">
+      <c r="D178" s="9" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="9" t="s">
+      <c r="E178" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="B178" s="9" t="s">
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D178" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E178" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="4" t="s">
+      <c r="B179" s="9" t="s">
         <v>418</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>419</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>418</v>
       </c>
       <c r="D179" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="E179" s="9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9"/>
+      <c r="B180" s="9" t="s">
+        <v>420</v>
+      </c>
       <c r="C180" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D180" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="6"/>
-      <c r="B181" s="9" t="s">
+      <c r="D181" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="E181" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="6"/>
+      <c r="B182" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D181" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="E181" s="9" t="s">
+      <c r="C182" s="1" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="D182" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>425</v>
@@ -6537,19 +6542,19 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>427</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>427</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6557,30 +6562,30 @@
         <v>428</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>428</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D185" s="9" t="s">
         <v>431</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>432</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>431</v>
@@ -6588,23 +6593,25 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B186" s="9" t="s">
         <v>433</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>433</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="6"/>
+      <c r="A187" s="9" t="s">
+        <v>434</v>
+      </c>
       <c r="B187" s="9" t="s">
         <v>434</v>
       </c>
@@ -6619,9 +6626,7 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="4" t="s">
-        <v>435</v>
-      </c>
+      <c r="A188" s="6"/>
       <c r="B188" s="9" t="s">
         <v>435</v>
       </c>
@@ -6629,43 +6634,43 @@
         <v>435</v>
       </c>
       <c r="D188" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="E188" s="9" t="s">
+      <c r="B189" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D189" s="9" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B189" s="9"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="9" t="s">
-        <v>438</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="F189" s="3" t="s">
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B190" s="9"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F190" s="3" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D190" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="E190" s="9" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6673,16 +6678,16 @@
         <v>440</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>440</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6690,25 +6695,27 @@
         <v>441</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>441</v>
       </c>
       <c r="D192" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B193" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="E192" s="9" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="6"/>
-      <c r="B193" s="9" t="s">
-        <v>444</v>
-      </c>
       <c r="C193" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>444</v>
@@ -6718,101 +6725,99 @@
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="9" t="s">
-        <v>446</v>
-      </c>
+      <c r="A194" s="6"/>
       <c r="B194" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>446</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B195" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="C195" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D195" s="9" t="s">
+      <c r="B196" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="E195" s="9" t="s">
+      <c r="C196" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D196" s="9" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="9"/>
-      <c r="B196" s="9"/>
-      <c r="C196" s="1" t="s">
+      <c r="E196" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="D196" s="1" t="s">
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="9"/>
+      <c r="B197" s="9"/>
+      <c r="C197" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="9" t="s">
+      <c r="E197" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D197" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E197" s="9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B198" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="B198" s="9" t="s">
-        <v>458</v>
-      </c>
       <c r="C198" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>458</v>
+        <v>144</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>457</v>
+        <v>144</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B199" s="9" t="s">
         <v>459</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>459</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6820,86 +6825,86 @@
         <v>460</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D201" s="9" t="s">
         <v>464</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D201" s="9" t="s">
-        <v>465</v>
       </c>
       <c r="E201" s="9" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="4" t="s">
-        <v>466</v>
+      <c r="A202" s="9" t="s">
+        <v>465</v>
       </c>
       <c r="B202" s="9" t="s">
         <v>466</v>
       </c>
       <c r="C202" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D202" s="9" t="s">
+      <c r="B203" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="E202" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="6"/>
-      <c r="B203" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>469</v>
       </c>
       <c r="E203" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="6"/>
+      <c r="B204" s="9" t="s">
         <v>470</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>471</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>471</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>232</v>
+        <v>470</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>231</v>
+        <v>471</v>
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="9" t="s">
+      <c r="A205" s="4" t="s">
         <v>472</v>
       </c>
       <c r="B205" s="9" t="s">
@@ -6909,39 +6914,39 @@
         <v>472</v>
       </c>
       <c r="D205" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="E205" s="9" t="s">
+      <c r="B206" s="9" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="6"/>
-      <c r="B206" s="9" t="s">
-        <v>474</v>
-      </c>
       <c r="C206" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>474</v>
       </c>
       <c r="E206" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="6"/>
+      <c r="B207" s="9" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="9" t="s">
+      <c r="C207" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B207" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="D207" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>476</v>
@@ -6949,133 +6954,133 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B208" s="9" t="s">
         <v>478</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D209" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="E209" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B210" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="E209" s="9" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="6"/>
-      <c r="B210" s="9" t="s">
+      <c r="C210" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D210" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="E210" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="D210" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E210" s="9" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="6"/>
+      <c r="B211" s="9" t="s">
         <v>484</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>484</v>
       </c>
       <c r="D211" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B212" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="E211" s="9" t="s">
+      <c r="C212" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D212" s="9" t="s">
         <v>487</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D212" s="9" t="s">
-        <v>488</v>
       </c>
       <c r="E212" s="9" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="9" t="s">
         <v>489</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>489</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E213" s="9" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="9" t="s">
+      <c r="A214" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B214" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="B214" s="9" t="s">
-        <v>492</v>
-      </c>
       <c r="C214" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D214" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="D214" s="9" t="s">
-        <v>493</v>
-      </c>
       <c r="E214" s="9" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E215" s="9" t="s">
         <v>495</v>
@@ -7083,53 +7088,53 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>497</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B217" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="B217" s="9" t="s">
-        <v>500</v>
-      </c>
       <c r="C217" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D217" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="D217" s="9" t="s">
-        <v>500</v>
-      </c>
       <c r="E217" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B218" s="9" t="s">
         <v>501</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>501</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7137,53 +7142,53 @@
         <v>502</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E219" s="9" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="4" t="s">
+    <row r="220" spans="1:5">
+      <c r="A220" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B220" s="9"/>
-      <c r="C220" s="1"/>
       <c r="D220" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="9"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="E221" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="D221" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="E221" s="9" t="s">
-        <v>505</v>
+      <c r="F221" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="9" t="s">
+      <c r="A222" s="4" t="s">
         <v>507</v>
       </c>
       <c r="B222" s="9" t="s">
@@ -7193,10 +7198,10 @@
         <v>507</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -7217,94 +7222,94 @@
       </c>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="6"/>
+      <c r="A224" s="9" t="s">
+        <v>509</v>
+      </c>
       <c r="B224" s="9" t="s">
         <v>509</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>509</v>
       </c>
       <c r="E224" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="6"/>
+      <c r="B225" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="D225" s="9" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E225" s="9" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="6"/>
+      <c r="A226" s="9" t="s">
+        <v>513</v>
+      </c>
       <c r="B226" s="9" t="s">
         <v>514</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>514</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="6"/>
-      <c r="B227" s="9"/>
+      <c r="B227" s="9" t="s">
+        <v>515</v>
+      </c>
       <c r="C227" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="E227" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="D227" s="9" t="s">
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="6"/>
+      <c r="B228" s="9"/>
+      <c r="C228" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E227" s="1" t="s">
+      <c r="D228" s="9" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="4" t="s">
+      <c r="E228" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B228" s="9" t="s">
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D228" s="9" t="s">
+      <c r="B229" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="E228" s="9" t="s">
+      <c r="C229" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D229" s="9" t="s">
         <v>523</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>524</v>
       </c>
       <c r="E229" s="9" t="s">
         <v>524</v>
@@ -7315,59 +7320,59 @@
         <v>525</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>525</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>232</v>
+        <v>525</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>231</v>
+        <v>525</v>
       </c>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="6"/>
+      <c r="A231" s="9" t="s">
+        <v>526</v>
+      </c>
       <c r="B231" s="9" t="s">
         <v>527</v>
       </c>
       <c r="C231" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E231" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="6"/>
+      <c r="B232" s="9" t="s">
         <v>528</v>
-      </c>
-      <c r="D231" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="E231" s="9" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>529</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>529</v>
       </c>
       <c r="D232" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="E232" s="9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="E232" s="9" t="s">
+      <c r="B233" s="9" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>531</v>
-      </c>
       <c r="C233" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>531</v>
@@ -7377,12 +7382,14 @@
       </c>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="6"/>
+      <c r="A234" s="9" t="s">
+        <v>532</v>
+      </c>
       <c r="B234" s="9" t="s">
         <v>532</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>532</v>
@@ -7392,162 +7399,160 @@
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="9" t="s">
-        <v>534</v>
-      </c>
+      <c r="A235" s="6"/>
       <c r="B235" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>534</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B236" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="B236" s="9" t="s">
-        <v>537</v>
-      </c>
       <c r="C236" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D236" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="D236" s="9" t="s">
-        <v>537</v>
-      </c>
       <c r="E236" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B237" s="9" t="s">
         <v>538</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>538</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="9"/>
-      <c r="B238" s="9"/>
+      <c r="A238" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>539</v>
+      </c>
       <c r="C238" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>7</v>
+      <c r="D238" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="E238" s="9" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="B239" s="9" t="s">
-        <v>540</v>
-      </c>
+      <c r="A239" s="9"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D239" s="9" t="s">
+      <c r="D239" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="E239" s="9" t="s">
+      <c r="B240" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D240" s="9" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="240" spans="2:5">
-      <c r="B240" s="9"/>
-      <c r="C240" s="1" t="s">
+      <c r="E240" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="D240" s="9" t="s">
+    </row>
+    <row r="241" spans="2:5">
+      <c r="B241" s="9"/>
+      <c r="C241" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E240" s="9" t="s">
+      <c r="D241" s="9" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="6"/>
-      <c r="B241" s="9" t="s">
+      <c r="E241" s="9" t="s">
         <v>546</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D241" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="E241" s="9" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="6"/>
-      <c r="B242" s="9"/>
+      <c r="B242" s="9" t="s">
+        <v>547</v>
+      </c>
       <c r="C242" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="E242" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>551</v>
-      </c>
+      <c r="A243" s="6"/>
+      <c r="B243" s="9"/>
       <c r="C243" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D243" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="E243" s="9" t="s">
-        <v>550</v>
+      <c r="D243" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B244" s="9" t="s">
         <v>552</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>552</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="9" t="s">
         <v>553</v>
       </c>
       <c r="B245" s="9" t="s">
@@ -7564,17 +7569,17 @@
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="9" t="s">
+      <c r="A246" s="4" t="s">
         <v>554</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E246" s="9" t="s">
         <v>554</v>
@@ -7582,41 +7587,41 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D247" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="E247" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="E247" s="9" t="s">
+      <c r="B248" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D248" s="9" t="s">
         <v>559</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="B248" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="D248" s="9" t="s">
-        <v>561</v>
       </c>
       <c r="E248" s="9" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="9" t="s">
-        <v>562</v>
+      <c r="A249" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="B249" s="9" t="s">
         <v>562</v>
@@ -7628,7 +7633,7 @@
         <v>562</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7676,271 +7681,275 @@
         <v>565</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D253" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="E253" s="9" t="s">
         <v>567</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="E253" s="9" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="9" t="s">
-        <v>293</v>
+        <v>568</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>293</v>
+        <v>568</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>293</v>
+        <v>568</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>293</v>
+        <v>569</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="255" spans="2:6">
-      <c r="B255" s="9"/>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>294</v>
+      </c>
       <c r="C255" s="1" t="s">
-        <v>569</v>
+        <v>294</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256" s="9"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6">
       <c r="B256" s="9"/>
       <c r="C256" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E256" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F256" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F256" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>573</v>
-      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="9"/>
+      <c r="B257" s="9"/>
       <c r="C257" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D257" s="9" t="s">
+      <c r="D257" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="E257" s="9" t="s">
+      <c r="B258" s="9" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>576</v>
-      </c>
       <c r="C258" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E258" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="F258" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B259" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="B259" s="9" t="s">
-        <v>578</v>
-      </c>
       <c r="C259" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B260" s="9" t="s">
         <v>579</v>
-      </c>
-      <c r="B260" s="9" t="s">
-        <v>580</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>579</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E260" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B261" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="B261" s="9" t="s">
+      <c r="C261" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D261" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="E261" s="9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="C261" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="D261" s="9" t="s">
+      <c r="B262" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="E261" s="9" t="s">
+      <c r="C262" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D262" s="9" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="262" spans="2:6">
-      <c r="B262" s="9"/>
-      <c r="C262" s="1" t="s">
+      <c r="E262" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="F262" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="6"/>
-      <c r="B263" s="7"/>
+    </row>
+    <row r="263" spans="2:6">
+      <c r="B263" s="9"/>
       <c r="C263" s="1" t="s">
         <v>586</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>7</v>
+        <v>584</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>7</v>
+        <v>585</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>587</v>
-      </c>
+      <c r="A264" s="6"/>
+      <c r="B264" s="7"/>
       <c r="C264" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="D264" s="9" t="s">
+      <c r="D264" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="E264" s="9" t="s">
+      <c r="B265" s="9" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="4" t="s">
+      <c r="C265" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D265" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="B265" s="9" t="s">
+      <c r="E265" s="9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="B266" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="D265" s="9" t="s">
+      <c r="C266" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E265" s="9" t="s">
+      <c r="D266" s="9" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="266" spans="2:5">
-      <c r="B266" s="9"/>
-      <c r="C266" s="1" t="s">
+      <c r="E266" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="D266" s="1" t="s">
+    </row>
+    <row r="267" spans="2:5">
+      <c r="B267" s="9"/>
+      <c r="C267" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E266" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="6"/>
-      <c r="B267" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="C267" s="1" t="s">
+    <row r="268" spans="1:5">
+      <c r="A268" s="6"/>
+      <c r="B268" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="D267" s="9" t="s">
+      <c r="C268" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="E267" s="9" t="s">
+      <c r="D268" s="9" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="268" spans="2:5">
-      <c r="B268" s="9"/>
-      <c r="C268" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="9"/>
+      <c r="E268" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5">
       <c r="B269" s="9"/>
       <c r="C269" s="1" t="s">
-        <v>599</v>
+        <v>82</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>84</v>
@@ -7949,374 +7958,372 @@
         <v>84</v>
       </c>
     </row>
-    <row r="270" spans="2:5">
+    <row r="270" spans="1:5">
+      <c r="A270" s="9"/>
       <c r="B270" s="9"/>
       <c r="C270" s="1" t="s">
         <v>600</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>600</v>
+        <v>84</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="B271" s="9" t="s">
-        <v>602</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="B271" s="9"/>
       <c r="C271" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="D271" s="9" t="s">
+      <c r="D271" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="E271" s="9" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="272" spans="2:5">
-      <c r="B272" s="9"/>
+      <c r="B272" s="9" t="s">
+        <v>603</v>
+      </c>
       <c r="C272" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D272" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="E272" s="9" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5">
+      <c r="B273" s="9"/>
+      <c r="C273" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="E272" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="9" t="s">
+      <c r="D273" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B273" s="9" t="s">
+      <c r="E273" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="C273" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D273" s="9" t="s">
+      <c r="B274" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="E273" s="9" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" s="9"/>
-      <c r="B274" s="9"/>
-      <c r="C274" s="1" t="s">
+      <c r="D274" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="D274" s="9" t="s">
+      <c r="E274" s="9" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="9"/>
+      <c r="B275" s="9"/>
+      <c r="C275" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="E274" s="9" t="s">
+      <c r="D275" s="9" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" s="4" t="s">
+      <c r="E275" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="B275" s="9" t="s">
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="D275" s="9" t="s">
+      <c r="B276" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="E275" s="9" t="s">
+      <c r="C276" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D276" s="9" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" s="9" t="s">
+      <c r="E276" s="9" t="s">
         <v>614</v>
-      </c>
-      <c r="B276" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="D276" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="E276" s="9" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D277" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="E277" s="9" t="s">
         <v>618</v>
-      </c>
-      <c r="B277" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D277" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="E277" s="9" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="E278" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="B278" s="9" t="s">
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="C278" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="D278" s="9" t="s">
+      <c r="B279" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D279" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E278" s="9" t="s">
+      <c r="E279" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="B279" s="9" t="s">
+    <row r="280" spans="1:5">
+      <c r="A280" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="B280" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="D279" s="9" t="s">
+      <c r="C280" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="E279" s="9" t="s">
+      <c r="D280" s="9" t="s">
         <v>628</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="A280" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B280" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="D280" s="9" t="s">
-        <v>630</v>
       </c>
       <c r="E280" s="9" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="281" spans="2:5">
-      <c r="B281" s="9"/>
+    <row r="281" spans="1:5">
+      <c r="A281" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>631</v>
+      </c>
       <c r="C281" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D281" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="E281" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="E281" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="B282" s="9" t="s">
-        <v>633</v>
-      </c>
+    </row>
+    <row r="282" spans="2:5">
+      <c r="B282" s="9"/>
       <c r="C282" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D282" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="E282" s="9" t="s">
-        <v>632</v>
+      <c r="D282" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="B283" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="B283" s="9" t="s">
+      <c r="C283" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="E283" s="9" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="C283" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D283" s="9" t="s">
+      <c r="B284" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="E283" s="9" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284" s="9"/>
-      <c r="B284" s="9"/>
-      <c r="C284" s="1" t="s">
+      <c r="D284" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="E284" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="9"/>
+      <c r="B285" s="9"/>
+      <c r="C285" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="E284" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285" s="9" t="s">
+      <c r="D285" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B285" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D285" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="E285" s="9" t="s">
+      <c r="E285" s="1" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B286" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="B286" s="9" t="s">
+      <c r="C286" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D286" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="E286" s="9" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="C286" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D286" s="9" t="s">
+      <c r="B287" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="E286" s="9" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="4" t="s">
+      <c r="C287" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D287" s="9" t="s">
         <v>643</v>
-      </c>
-      <c r="B287" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="D287" s="9" t="s">
-        <v>644</v>
       </c>
       <c r="E287" s="9" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="288" spans="2:5">
+    <row r="288" spans="1:5">
+      <c r="A288" s="4" t="s">
+        <v>644</v>
+      </c>
       <c r="B288" s="9" t="s">
         <v>645</v>
       </c>
       <c r="C288" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="E288" s="9" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5">
+      <c r="B289" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="D288" s="9" t="s">
+      <c r="C289" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="E288" s="9" t="s">
+      <c r="D289" s="9" t="s">
         <v>648</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="B289" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D289" s="9" t="s">
-        <v>650</v>
       </c>
       <c r="E289" s="9" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="9" t="s">
+      <c r="A290" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B290" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="B290" s="9" t="s">
+      <c r="C290" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D290" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="E290" s="9" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="C290" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="D290" s="9" t="s">
+      <c r="B291" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="E290" s="9" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="A291" s="9"/>
-      <c r="B291" s="9"/>
-      <c r="C291" s="1" t="s">
+      <c r="D291" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="E291" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="9"/>
+      <c r="B292" s="9"/>
+      <c r="C292" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="E291" s="1" t="s">
+      <c r="D292" s="1" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="A292" s="9" t="s">
+      <c r="E292" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B292" s="9" t="s">
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="B293" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="D292" s="9" t="s">
+      <c r="C293" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="E292" s="9" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="A293" s="6"/>
-      <c r="B293" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>660</v>
@@ -8326,80 +8333,78 @@
       </c>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="9" t="s">
-        <v>662</v>
-      </c>
+      <c r="A294" s="6"/>
       <c r="B294" s="9" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>662</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E294" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="E295" s="9" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B295" s="9" t="s">
+      <c r="B296" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="C296" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D295" s="9" t="s">
+      <c r="D296" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E295" s="9" t="s">
+      <c r="E296" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
-      <c r="A296" s="6"/>
-      <c r="B296" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="C296" s="1" t="s">
+    <row r="297" spans="1:5">
+      <c r="A297" s="6"/>
+      <c r="B297" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="D296" s="9" t="s">
+      <c r="C297" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="E296" s="9" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="A297" s="9" t="s">
+      <c r="D297" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="B297" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="C297" s="1" t="s">
+      <c r="E297" s="9" t="s">
         <v>667</v>
-      </c>
-      <c r="D297" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="E297" s="9" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="9" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>670</v>
@@ -8461,128 +8466,133 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="9" t="s">
-        <v>213</v>
+        <v>674</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>212</v>
+        <v>674</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>213</v>
+        <v>674</v>
       </c>
       <c r="D302" s="9" t="s">
-        <v>212</v>
+        <v>674</v>
       </c>
       <c r="E302" s="9" t="s">
-        <v>213</v>
+        <v>674</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="9" t="s">
-        <v>674</v>
+        <v>213</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>675</v>
+        <v>212</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>674</v>
+        <v>213</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>675</v>
+        <v>212</v>
       </c>
       <c r="E303" s="9" t="s">
-        <v>674</v>
+        <v>213</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B304" s="9" t="s">
         <v>676</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>676</v>
       </c>
       <c r="E304" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="305" spans="1:5">
-      <c r="A305" s="6"/>
-      <c r="B305" s="9"/>
+      <c r="A305" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="B305" s="9" t="s">
+        <v>677</v>
+      </c>
       <c r="C305" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D305" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>7</v>
+      <c r="D305" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="E305" s="9" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="306" spans="1:5">
-      <c r="A306" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="B306" s="9" t="s">
-        <v>678</v>
-      </c>
+      <c r="A306" s="6"/>
+      <c r="B306" s="9"/>
       <c r="C306" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="D306" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="E306" s="9" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="307" s="3" customFormat="1" spans="1:6">
+      <c r="D306" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" s="9" t="s">
         <v>679</v>
       </c>
       <c r="B307" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="E307" s="9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="308" s="3" customFormat="1" spans="1:6">
+      <c r="A308" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="C307" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="D307" s="9" t="s">
+      <c r="B308" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="E307" s="9" t="s">
+      <c r="C308" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="D308" s="9" t="s">
         <v>682</v>
-      </c>
-      <c r="F307" s="9"/>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="A308" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="B308" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="C308" s="9"/>
-      <c r="D308" s="9" t="s">
-        <v>683</v>
       </c>
       <c r="E308" s="9" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="309" spans="2:5">
+      <c r="F308" s="9"/>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="9" t="s">
+        <v>684</v>
+      </c>
       <c r="B309" s="9" t="s">
         <v>684</v>
       </c>
       <c r="C309" s="9"/>
       <c r="D309" s="9" t="s">
-        <v>7</v>
+        <v>684</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>7</v>
+        <v>684</v>
       </c>
     </row>
     <row r="310" spans="2:5">
@@ -8591,29 +8601,28 @@
       </c>
       <c r="C310" s="9"/>
       <c r="D310" s="9" t="s">
-        <v>608</v>
+        <v>7</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5">
+      <c r="B311" s="9" t="s">
         <v>686</v>
-      </c>
-      <c r="B311" s="9" t="s">
-        <v>687</v>
       </c>
       <c r="C311" s="9"/>
       <c r="D311" s="9" t="s">
-        <v>7</v>
+        <v>609</v>
       </c>
       <c r="E311" s="9" t="s">
-        <v>7</v>
+        <v>610</v>
       </c>
     </row>
     <row r="312" spans="1:5">
-      <c r="A312" s="6"/>
+      <c r="A312" s="9" t="s">
+        <v>687</v>
+      </c>
       <c r="B312" s="9" t="s">
         <v>688</v>
       </c>
@@ -8626,18 +8635,16 @@
       </c>
     </row>
     <row r="313" spans="1:5">
-      <c r="A313" s="9" t="s">
-        <v>689</v>
-      </c>
+      <c r="A313" s="6"/>
       <c r="B313" s="9" t="s">
         <v>689</v>
       </c>
       <c r="C313" s="9"/>
       <c r="D313" s="9" t="s">
-        <v>689</v>
+        <v>7</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>689</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8649,14 +8656,16 @@
       </c>
       <c r="C314" s="9"/>
       <c r="D314" s="9" t="s">
-        <v>7</v>
+        <v>690</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>7</v>
+        <v>690</v>
       </c>
     </row>
     <row r="315" spans="1:5">
-      <c r="A315" s="6"/>
+      <c r="A315" s="9" t="s">
+        <v>691</v>
+      </c>
       <c r="B315" s="9" t="s">
         <v>691</v>
       </c>
@@ -8668,8 +8677,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="2:5">
-      <c r="B316" s="4" t="s">
+    <row r="316" spans="1:5">
+      <c r="A316" s="6"/>
+      <c r="B316" s="9" t="s">
         <v>692</v>
       </c>
       <c r="C316" s="9"/>
@@ -8680,12 +8690,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
-      <c r="A317" s="4" t="s">
+    <row r="317" spans="2:5">
+      <c r="B317" s="4" t="s">
         <v>693</v>
-      </c>
-      <c r="B317" s="9" t="s">
-        <v>694</v>
       </c>
       <c r="C317" s="9"/>
       <c r="D317" s="9" t="s">
@@ -8696,38 +8703,41 @@
       </c>
     </row>
     <row r="318" spans="1:5">
-      <c r="A318" s="9" t="s">
-        <v>695</v>
+      <c r="A318" s="4" t="s">
+        <v>694</v>
       </c>
       <c r="B318" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C318" s="1" t="s">
-        <v>696</v>
-      </c>
+      <c r="C318" s="9"/>
       <c r="D318" s="9" t="s">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="E318" s="9" t="s">
-        <v>695</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="B319" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B319" s="9" t="s">
+      <c r="D319" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E319" s="9" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="C319" s="9"/>
-      <c r="D319" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="E319" s="9" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="320" spans="2:5">
       <c r="B320" s="9" t="s">
         <v>699</v>
       </c>
@@ -8736,28 +8746,25 @@
         <v>699</v>
       </c>
       <c r="E320" s="9" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5">
+      <c r="B321" s="9" t="s">
         <v>700</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="A321" s="9"/>
-      <c r="B321" s="9" t="s">
-        <v>701</v>
       </c>
       <c r="C321" s="9"/>
       <c r="D321" s="9" t="s">
-        <v>7</v>
+        <v>700</v>
       </c>
       <c r="E321" s="9" t="s">
-        <v>7</v>
+        <v>701</v>
       </c>
     </row>
     <row r="322" spans="1:5">
-      <c r="A322" s="9" t="s">
+      <c r="A322" s="9"/>
+      <c r="B322" s="9" t="s">
         <v>702</v>
-      </c>
-      <c r="B322" s="9" t="s">
-        <v>703</v>
       </c>
       <c r="C322" s="9"/>
       <c r="D322" s="9" t="s">
@@ -8769,21 +8776,23 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="B323" s="9" t="s">
         <v>704</v>
-      </c>
-      <c r="B323" s="9" t="s">
-        <v>705</v>
       </c>
       <c r="C323" s="9"/>
       <c r="D323" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E323" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="E323" s="9" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="A324" s="6"/>
       <c r="B324" s="9" t="s">
         <v>706</v>
       </c>
@@ -8792,80 +8801,80 @@
         <v>706</v>
       </c>
       <c r="E324" s="9" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="6"/>
+      <c r="B325" s="9" t="s">
         <v>707</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="A325" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="B325" s="9" t="s">
-        <v>709</v>
       </c>
       <c r="C325" s="9"/>
       <c r="D325" s="9" t="s">
-        <v>7</v>
+        <v>707</v>
       </c>
       <c r="E325" s="9" t="s">
-        <v>7</v>
+        <v>708</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B326" s="9" t="s">
         <v>710</v>
-      </c>
-      <c r="B326" s="9" t="s">
-        <v>711</v>
       </c>
       <c r="C326" s="9"/>
       <c r="D326" s="9" t="s">
-        <v>711</v>
+        <v>7</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>710</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B327" s="9" t="s">
         <v>712</v>
       </c>
       <c r="C327" s="9"/>
       <c r="D327" s="9" t="s">
-        <v>7</v>
+        <v>712</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>7</v>
+        <v>711</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="9" t="s">
-        <v>126</v>
+        <v>713</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>126</v>
+        <v>713</v>
       </c>
       <c r="C328" s="9"/>
       <c r="D328" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E328" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B329" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C329" s="9"/>
+      <c r="D329" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E328" s="9" t="s">
+      <c r="E329" s="9" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="6"/>
-      <c r="B329" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="C329" s="1"/>
-      <c r="D329" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8881,375 +8890,373 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="2:5">
-      <c r="B331" s="9" t="s">
+    <row r="331" spans="1:5">
+      <c r="A331" s="6"/>
+      <c r="B331" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C331" s="9"/>
-      <c r="D331" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E331" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="A332" s="6"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5">
       <c r="B332" s="9" t="s">
         <v>716</v>
       </c>
       <c r="C332" s="9"/>
       <c r="D332" s="9" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="E332" s="9" t="s">
-        <v>266</v>
+        <v>24</v>
       </c>
     </row>
     <row r="333" spans="1:5">
-      <c r="A333" s="9" t="s">
+      <c r="A333" s="6"/>
+      <c r="B333" s="9" t="s">
         <v>717</v>
-      </c>
-      <c r="B333" s="9" t="s">
-        <v>718</v>
       </c>
       <c r="C333" s="9"/>
       <c r="D333" s="9" t="s">
-        <v>718</v>
+        <v>266</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>717</v>
+        <v>267</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B334" s="9" t="s">
         <v>719</v>
-      </c>
-      <c r="B334" s="9" t="s">
-        <v>720</v>
       </c>
       <c r="C334" s="9"/>
       <c r="D334" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E334" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B335" s="9" t="s">
         <v>721</v>
       </c>
       <c r="C335" s="9"/>
       <c r="D335" s="9" t="s">
-        <v>311</v>
+        <v>721</v>
       </c>
       <c r="E335" s="9" t="s">
-        <v>311</v>
+        <v>720</v>
       </c>
     </row>
     <row r="336" spans="1:5">
-      <c r="A336" s="6"/>
+      <c r="A336" s="9" t="s">
+        <v>722</v>
+      </c>
       <c r="B336" s="9" t="s">
         <v>722</v>
       </c>
       <c r="C336" s="9"/>
       <c r="D336" s="9" t="s">
-        <v>722</v>
+        <v>312</v>
       </c>
       <c r="E336" s="9" t="s">
-        <v>723</v>
+        <v>312</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="6"/>
       <c r="B337" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C337" s="9"/>
+      <c r="D337" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="E337" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="C337" s="1" t="s">
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="6"/>
+      <c r="B338" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="D337" s="9" t="s">
+      <c r="C338" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D338" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E337" s="9" t="s">
+      <c r="E338" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
-      <c r="A338" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="B338" s="9"/>
-      <c r="C338" s="1"/>
-      <c r="D338" s="9" t="s">
+    <row r="339" spans="1:6">
+      <c r="A339" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="E338" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="F338" s="3" t="s">
+      <c r="B339" s="9"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="9" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="A339" s="9" t="s">
+      <c r="E339" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="F339" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="B339" s="9" t="s">
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="B340" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="D339" s="9" t="s">
+      <c r="C340" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D340" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="E340" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="E339" s="9" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="A340" s="6"/>
-      <c r="B340" s="9" t="s">
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="6"/>
+      <c r="B341" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C340" s="9"/>
-      <c r="D340" s="9" t="s">
+      <c r="C341" s="9"/>
+      <c r="D341" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E340" s="9" t="s">
+      <c r="E341" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
-      <c r="A341" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="B341" s="9" t="s">
+    <row r="342" spans="1:5">
+      <c r="A342" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="B342" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="D341" s="9" t="s">
+      <c r="C342" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D342" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="E342" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="E341" s="9" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="A342" s="6"/>
-      <c r="B342" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="C342" s="9"/>
-      <c r="D342" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E342" s="9" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="343" spans="1:5">
-      <c r="A343" s="9" t="s">
+      <c r="A343" s="6"/>
+      <c r="B343" s="9" t="s">
         <v>736</v>
-      </c>
-      <c r="B343" s="9" t="s">
-        <v>737</v>
       </c>
       <c r="C343" s="9"/>
       <c r="D343" s="9" t="s">
-        <v>737</v>
+        <v>7</v>
       </c>
       <c r="E343" s="9" t="s">
-        <v>736</v>
+        <v>7</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="B344" s="9" t="s">
         <v>738</v>
-      </c>
-      <c r="B344" s="9" t="s">
-        <v>739</v>
       </c>
       <c r="C344" s="9"/>
       <c r="D344" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E344" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="9" t="s">
-        <v>487</v>
+        <v>739</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>486</v>
+        <v>740</v>
       </c>
       <c r="C345" s="9"/>
       <c r="D345" s="9" t="s">
-        <v>486</v>
+        <v>740</v>
       </c>
       <c r="E345" s="9" t="s">
-        <v>487</v>
+        <v>739</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="9" t="s">
-        <v>740</v>
+        <v>488</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>740</v>
+        <v>487</v>
       </c>
       <c r="C346" s="9"/>
       <c r="D346" s="9" t="s">
-        <v>740</v>
+        <v>487</v>
       </c>
       <c r="E346" s="9" t="s">
-        <v>740</v>
+        <v>488</v>
       </c>
     </row>
     <row r="347" spans="1:5">
-      <c r="A347" s="4" t="s">
+      <c r="A347" s="9" t="s">
         <v>741</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C347" s="9"/>
       <c r="D347" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="E347" s="9" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B348" s="9" t="s">
         <v>743</v>
-      </c>
-      <c r="E347" s="9" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
-      <c r="A348" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="B348" s="9" t="s">
-        <v>746</v>
       </c>
       <c r="C348" s="9"/>
       <c r="D348" s="9" t="s">
-        <v>7</v>
+        <v>744</v>
       </c>
       <c r="E348" s="9" t="s">
-        <v>7</v>
+        <v>745</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="B349" s="9" t="s">
         <v>747</v>
-      </c>
-      <c r="B349" s="9" t="s">
-        <v>748</v>
       </c>
       <c r="C349" s="9"/>
       <c r="D349" s="9" t="s">
-        <v>393</v>
+        <v>7</v>
       </c>
       <c r="E349" s="9" t="s">
-        <v>393</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="B350" s="9" t="s">
         <v>749</v>
-      </c>
-      <c r="B350" s="9" t="s">
-        <v>750</v>
       </c>
       <c r="C350" s="9"/>
       <c r="D350" s="9" t="s">
-        <v>7</v>
+        <v>394</v>
       </c>
       <c r="E350" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="351" spans="2:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="9" t="s">
+        <v>750</v>
+      </c>
       <c r="B351" s="9" t="s">
         <v>751</v>
       </c>
       <c r="C351" s="9"/>
       <c r="D351" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E351" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5">
+      <c r="B352" s="9" t="s">
         <v>752</v>
-      </c>
-      <c r="E351" s="9" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
-      <c r="A352" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="B352" s="9" t="s">
-        <v>753</v>
       </c>
       <c r="C352" s="9"/>
       <c r="D352" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E352" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="9" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C353" s="9"/>
       <c r="D353" s="9" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="E353" s="9" t="s">
-        <v>7</v>
+        <v>756</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="B354" s="9" t="s">
         <v>758</v>
-      </c>
-      <c r="B354" s="9" t="s">
-        <v>759</v>
       </c>
       <c r="C354" s="9"/>
       <c r="D354" s="9" t="s">
-        <v>759</v>
+        <v>7</v>
       </c>
       <c r="E354" s="9" t="s">
-        <v>758</v>
+        <v>7</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="B355" s="9" t="s">
         <v>760</v>
-      </c>
-      <c r="B355" s="9" t="s">
-        <v>761</v>
       </c>
       <c r="C355" s="9"/>
       <c r="D355" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="E355" s="9" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="9" t="s">
         <v>761</v>
-      </c>
-      <c r="E355" s="9" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="A356" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="B356" s="9" t="s">
         <v>762</v>
@@ -9259,69 +9266,69 @@
         <v>762</v>
       </c>
       <c r="E356" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="357" spans="1:5">
-      <c r="A357" s="9" t="s">
+      <c r="A357" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B357" s="9" t="s">
         <v>763</v>
-      </c>
-      <c r="B357" s="9" t="s">
-        <v>764</v>
       </c>
       <c r="C357" s="9"/>
       <c r="D357" s="9" t="s">
-        <v>608</v>
+        <v>763</v>
       </c>
       <c r="E357" s="9" t="s">
-        <v>608</v>
+        <v>763</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="B358" s="9" t="s">
         <v>765</v>
-      </c>
-      <c r="B358" s="9" t="s">
-        <v>766</v>
       </c>
       <c r="C358" s="9"/>
       <c r="D358" s="9" t="s">
-        <v>176</v>
+        <v>609</v>
       </c>
       <c r="E358" s="9" t="s">
-        <v>177</v>
+        <v>609</v>
       </c>
     </row>
     <row r="359" spans="1:5">
-      <c r="A359" s="6"/>
+      <c r="A359" s="9" t="s">
+        <v>766</v>
+      </c>
       <c r="B359" s="9" t="s">
         <v>767</v>
       </c>
       <c r="C359" s="9"/>
       <c r="D359" s="9" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="E359" s="9" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
     </row>
     <row r="360" spans="1:5">
-      <c r="A360" s="9" t="s">
-        <v>768</v>
-      </c>
+      <c r="A360" s="6"/>
       <c r="B360" s="9" t="s">
         <v>768</v>
       </c>
       <c r="C360" s="9"/>
       <c r="D360" s="9" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="E360" s="9" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
     </row>
     <row r="361" spans="1:5">
-      <c r="A361" s="4" t="s">
+      <c r="A361" s="9" t="s">
         <v>769</v>
       </c>
       <c r="B361" s="9" t="s">
@@ -9329,62 +9336,62 @@
       </c>
       <c r="C361" s="9"/>
       <c r="D361" s="9" t="s">
-        <v>769</v>
+        <v>7</v>
       </c>
       <c r="E361" s="9" t="s">
-        <v>769</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" spans="1:5">
-      <c r="A362" s="6"/>
+      <c r="A362" s="4" t="s">
+        <v>770</v>
+      </c>
       <c r="B362" s="9" t="s">
         <v>770</v>
       </c>
       <c r="C362" s="9"/>
       <c r="D362" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="E362" s="9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="6"/>
+      <c r="B363" s="9" t="s">
         <v>771</v>
-      </c>
-      <c r="E362" s="9" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="363" spans="2:5">
-      <c r="B363" s="9" t="s">
-        <v>773</v>
       </c>
       <c r="C363" s="9"/>
       <c r="D363" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="E363" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="E363" s="9" t="s">
+    </row>
+    <row r="364" spans="2:5">
+      <c r="B364" s="9" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="364" spans="1:5">
-      <c r="A364" s="1" t="s">
+      <c r="C364" s="9"/>
+      <c r="D364" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="E364" s="9" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B364" s="9" t="s">
+      <c r="B365" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C364" s="9" t="s">
+      <c r="C365" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D364" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E364" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
-      <c r="A365" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="B365" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="C365" s="9"/>
       <c r="D365" s="9" t="s">
         <v>7</v>
       </c>
@@ -9393,41 +9400,38 @@
       </c>
     </row>
     <row r="366" spans="1:5">
-      <c r="A366" s="9" t="s">
+      <c r="A366" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="B366" s="9" t="s">
         <v>777</v>
-      </c>
-      <c r="B366" s="9" t="s">
-        <v>778</v>
       </c>
       <c r="C366" s="9"/>
       <c r="D366" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E366" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="E366" s="9" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6">
-      <c r="A367" s="9" t="s">
+      <c r="B367" s="9" t="s">
         <v>779</v>
-      </c>
-      <c r="B367" s="9" t="s">
-        <v>780</v>
       </c>
       <c r="C367" s="9"/>
       <c r="D367" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="E367" s="9" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="9" t="s">
         <v>780</v>
-      </c>
-      <c r="E367" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="F367" s="3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
-      <c r="A368" s="9" t="s">
-        <v>781</v>
       </c>
       <c r="B368" s="9" t="s">
         <v>781</v>
@@ -9437,105 +9441,108 @@
         <v>781</v>
       </c>
       <c r="E368" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
+      </c>
+      <c r="F368" s="3" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="369" spans="1:5">
-      <c r="A369" s="4" t="s">
+      <c r="A369" s="9" t="s">
         <v>782</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>58</v>
+        <v>782</v>
       </c>
       <c r="C369" s="9"/>
       <c r="D369" s="9" t="s">
-        <v>576</v>
+        <v>782</v>
       </c>
       <c r="E369" s="9" t="s">
-        <v>575</v>
+        <v>782</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>782</v>
+        <v>58</v>
       </c>
       <c r="C370" s="9"/>
       <c r="D370" s="9" t="s">
-        <v>58</v>
+        <v>577</v>
       </c>
       <c r="E370" s="9" t="s">
-        <v>58</v>
+        <v>576</v>
       </c>
     </row>
     <row r="371" spans="1:5">
-      <c r="A371" s="9" t="s">
+      <c r="A371" s="4" t="s">
         <v>783</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C371" s="9"/>
       <c r="D371" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E371" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="E371" s="9" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
-      <c r="A372" s="6"/>
       <c r="B372" s="9" t="s">
-        <v>291</v>
+        <v>785</v>
       </c>
       <c r="C372" s="9"/>
       <c r="D372" s="9" t="s">
-        <v>291</v>
+        <v>785</v>
       </c>
       <c r="E372" s="9" t="s">
-        <v>291</v>
+        <v>784</v>
       </c>
     </row>
     <row r="373" spans="1:5">
-      <c r="A373" s="4" t="s">
-        <v>785</v>
-      </c>
+      <c r="A373" s="6"/>
       <c r="B373" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C373" s="9"/>
+      <c r="D373" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E373" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="C373" s="1" t="s">
+      <c r="B374" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="D373" s="9" t="s">
+      <c r="C374" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D374" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="E374" s="9" t="s">
         <v>458</v>
-      </c>
-      <c r="E373" s="9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
-      <c r="A374" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="B374" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="C374" s="9"/>
-      <c r="D374" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E374" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="9" t="s">
-        <v>594</v>
+        <v>789</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>594</v>
+        <v>790</v>
       </c>
       <c r="C375" s="9"/>
       <c r="D375" s="9" t="s">
@@ -9547,17 +9554,17 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="9" t="s">
-        <v>790</v>
+        <v>595</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>790</v>
+        <v>595</v>
       </c>
       <c r="C376" s="9"/>
       <c r="D376" s="9" t="s">
-        <v>790</v>
+        <v>7</v>
       </c>
       <c r="E376" s="9" t="s">
-        <v>790</v>
+        <v>7</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9565,22 +9572,22 @@
         <v>791</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C377" s="9"/>
       <c r="D377" s="9" t="s">
-        <v>7</v>
+        <v>791</v>
       </c>
       <c r="E377" s="9" t="s">
-        <v>7</v>
+        <v>791</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="B378" s="9" t="s">
         <v>793</v>
-      </c>
-      <c r="B378" s="9" t="s">
-        <v>794</v>
       </c>
       <c r="C378" s="9"/>
       <c r="D378" s="9" t="s">
@@ -9590,127 +9597,127 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:5">
       <c r="A379" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="B379" s="9" t="s">
         <v>795</v>
-      </c>
-      <c r="B379" s="9" t="s">
-        <v>796</v>
       </c>
       <c r="C379" s="9"/>
       <c r="D379" s="9" t="s">
-        <v>468</v>
+        <v>7</v>
       </c>
       <c r="E379" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="F379" s="3" t="s">
-        <v>570</v>
+        <v>7</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="B380" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="B380" s="9"/>
       <c r="C380" s="9"/>
       <c r="D380" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="E380" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="E380" s="9" t="s">
-        <v>797</v>
-      </c>
-      <c r="F380" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="A381" s="9" t="s">
-        <v>799</v>
-      </c>
-      <c r="B381" s="9" t="s">
-        <v>800</v>
-      </c>
+      <c r="B381" s="9"/>
       <c r="C381" s="9"/>
       <c r="D381" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="E381" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="E381" s="9" t="s">
-        <v>797</v>
+      <c r="F381" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B382" s="9" t="s">
         <v>801</v>
-      </c>
-      <c r="B382" s="9" t="s">
-        <v>802</v>
       </c>
       <c r="C382" s="9"/>
       <c r="D382" s="9" t="s">
-        <v>7</v>
+        <v>799</v>
       </c>
       <c r="E382" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6">
-      <c r="A383" s="6"/>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="9" t="s">
+        <v>802</v>
+      </c>
       <c r="B383" s="9" t="s">
         <v>803</v>
       </c>
       <c r="C383" s="9"/>
       <c r="D383" s="9" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="E383" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F383" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
-      <c r="A384" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="6"/>
+      <c r="B384" s="9" t="s">
         <v>804</v>
-      </c>
-      <c r="B384" s="9" t="s">
-        <v>805</v>
       </c>
       <c r="C384" s="9"/>
       <c r="D384" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E384" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="E384" s="9" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
-      <c r="A385" s="6"/>
       <c r="B385" s="9" t="s">
         <v>806</v>
       </c>
       <c r="C385" s="9"/>
       <c r="D385" s="9" t="s">
-        <v>141</v>
+        <v>806</v>
       </c>
       <c r="E385" s="9" t="s">
-        <v>142</v>
+        <v>805</v>
       </c>
     </row>
     <row r="386" spans="1:5">
-      <c r="A386" s="4" t="s">
-        <v>807</v>
-      </c>
+      <c r="A386" s="6"/>
       <c r="B386" s="9" t="s">
         <v>807</v>
       </c>
       <c r="C386" s="9"/>
       <c r="D386" s="9" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="E386" s="9" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9722,105 +9729,104 @@
       </c>
       <c r="C387" s="9"/>
       <c r="D387" s="9" t="s">
-        <v>588</v>
+        <v>7</v>
       </c>
       <c r="E387" s="9" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6">
-      <c r="A388" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="4" t="s">
         <v>809</v>
       </c>
       <c r="B388" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="C388" s="1" t="s">
+      <c r="C388" s="9"/>
+      <c r="D388" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="E388" s="9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="D388" s="9" t="s">
+      <c r="B389" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="E388" s="9" t="s">
+      <c r="D389" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="F388" s="7"/>
-    </row>
-    <row r="389" spans="1:5">
-      <c r="A389" s="6"/>
-      <c r="B389" s="9" t="s">
+      <c r="E389" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="C389" s="9"/>
-      <c r="D389" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="E389" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="390" s="3" customFormat="1" spans="1:6">
-      <c r="A390" s="9" t="s">
+      <c r="F389" s="7"/>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="6"/>
+      <c r="B390" s="9" t="s">
         <v>814</v>
-      </c>
-      <c r="B390" s="9" t="s">
-        <v>815</v>
       </c>
       <c r="C390" s="9"/>
       <c r="D390" s="9" t="s">
-        <v>815</v>
+        <v>320</v>
       </c>
       <c r="E390" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="F390" s="9"/>
+        <v>320</v>
+      </c>
     </row>
     <row r="391" s="3" customFormat="1" spans="1:6">
       <c r="A391" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="B391" s="9" t="s">
         <v>816</v>
       </c>
-      <c r="B391" s="9"/>
       <c r="C391" s="9"/>
       <c r="D391" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E391" s="9" t="s">
-        <v>818</v>
-      </c>
-      <c r="F391" s="6" t="s">
-        <v>819</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="F391" s="9"/>
     </row>
     <row r="392" s="3" customFormat="1" spans="1:6">
       <c r="A392" s="9" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
       <c r="D392" s="9" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E392" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="F392" s="6" t="s">
         <v>820</v>
-      </c>
-      <c r="F392" s="3" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="393" s="3" customFormat="1" spans="1:6">
       <c r="A393" s="9" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
       <c r="D393" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="E393" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="F393" s="3" t="s">
         <v>823</v>
-      </c>
-      <c r="E393" s="9" t="s">
-        <v>823</v>
-      </c>
-      <c r="F393" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="394" s="3" customFormat="1" spans="1:6">
@@ -9830,12 +9836,14 @@
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
       <c r="D394" s="9" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E394" s="9" t="s">
-        <v>823</v>
-      </c>
-      <c r="F394" s="7"/>
+        <v>824</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="395" s="3" customFormat="1" spans="1:6">
       <c r="A395" s="9" t="s">
@@ -9844,111 +9852,108 @@
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
       <c r="D395" s="9" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E395" s="9" t="s">
-        <v>825</v>
-      </c>
-      <c r="F395" s="6" t="s">
-        <v>827</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="F395" s="7"/>
     </row>
     <row r="396" s="3" customFormat="1" spans="1:6">
       <c r="A396" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
       <c r="D396" s="9" t="s">
-        <v>639</v>
+        <v>827</v>
       </c>
       <c r="E396" s="9" t="s">
-        <v>639</v>
+        <v>826</v>
       </c>
       <c r="F396" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="397" s="3" customFormat="1" spans="1:6">
+      <c r="A397" s="9" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="397" spans="1:6">
-      <c r="A397" s="9" t="s">
+      <c r="B397" s="9"/>
+      <c r="C397" s="9"/>
+      <c r="D397" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="E397" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F397" s="6" t="s">
         <v>830</v>
-      </c>
-      <c r="D397" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="E397" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="F397" s="6" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="9" t="s">
         <v>831</v>
       </c>
-      <c r="B398" s="7"/>
       <c r="D398" s="9" t="s">
-        <v>7</v>
+        <v>581</v>
       </c>
       <c r="E398" s="9" t="s">
-        <v>7</v>
+        <v>581</v>
       </c>
       <c r="F398" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B399" s="7"/>
       <c r="D399" s="9" t="s">
-        <v>834</v>
+        <v>7</v>
       </c>
       <c r="E399" s="9" t="s">
-        <v>835</v>
+        <v>7</v>
       </c>
       <c r="F399" s="6" t="s">
-        <v>230</v>
+        <v>833</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="B400" s="7"/>
+      <c r="D400" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="B400" s="9" t="s">
-        <v>834</v>
-      </c>
-      <c r="C400" s="7"/>
-      <c r="D400" s="9" t="s">
-        <v>834</v>
-      </c>
       <c r="E400" s="9" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F400" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="401" spans="1:6">
-      <c r="A401" s="4" t="s">
+      <c r="A401" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="B401" s="4" t="s">
+      <c r="B401" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C401" s="7"/>
+      <c r="D401" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="E401" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="D401" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E401" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F401" s="3" t="s">
+      <c r="F401" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:6">
       <c r="A402" s="4" t="s">
         <v>837</v>
       </c>
@@ -9956,33 +9961,33 @@
         <v>837</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>837</v>
+        <v>339</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>837</v>
+        <v>339</v>
       </c>
       <c r="F402" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="G402" s="3" t="s">
+      <c r="B403" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D403" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="E403" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="F403" s="3" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="403" spans="1:6">
-      <c r="A403" s="4" t="s">
+      <c r="G403" s="3" t="s">
         <v>840</v>
-      </c>
-      <c r="B403" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="D403" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="E403" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="F403" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -9993,55 +9998,55 @@
         <v>841</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>419</v>
+        <v>841</v>
       </c>
       <c r="E404" s="4" t="s">
-        <v>419</v>
+        <v>841</v>
       </c>
       <c r="F404" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" s="4" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="405" spans="3:6">
-      <c r="C405" s="1" t="s">
+      <c r="B405" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E405" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F405" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="D405" s="1" t="s">
+    </row>
+    <row r="406" spans="3:6">
+      <c r="C406" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="E405" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="F405" s="3" t="s">
+      <c r="D406" s="1" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="406" spans="1:6">
-      <c r="A406" s="4" t="s">
+      <c r="E406" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F406" s="3" t="s">
         <v>846</v>
-      </c>
-      <c r="D406" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="E406" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="F406" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="D407" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="E407" s="4" t="s">
         <v>849</v>
-      </c>
-      <c r="B407" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="D407" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="E407" s="4" t="s">
-        <v>851</v>
       </c>
       <c r="F407" s="3" t="s">
         <v>230</v>
@@ -10049,13 +10054,16 @@
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="D408" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="D408" s="4" t="s">
-        <v>853</v>
-      </c>
       <c r="E408" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>230</v>
@@ -10063,73 +10071,73 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E409" s="4" t="s">
         <v>855</v>
       </c>
       <c r="F409" s="3" t="s">
-        <v>856</v>
+        <v>230</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="D410" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="E410" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="F410" s="3" t="s">
         <v>857</v>
-      </c>
-      <c r="D410" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="E410" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="F410" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="D411" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="D411" s="4" t="s">
+      <c r="E411" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="E411" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="F411" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6">
-      <c r="A412" s="9" t="s">
+      <c r="D412" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="C412" s="9"/>
-      <c r="D412" s="9" t="s">
-        <v>861</v>
-      </c>
-      <c r="E412" s="9" t="s">
-        <v>861</v>
+      <c r="E412" s="4" t="s">
+        <v>860</v>
       </c>
       <c r="F412" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="413" spans="1:6">
-      <c r="A413" s="4" t="s">
+      <c r="A413" s="9" t="s">
         <v>862</v>
       </c>
-      <c r="D413" s="4" t="s">
+      <c r="C413" s="9"/>
+      <c r="D413" s="9" t="s">
         <v>862</v>
       </c>
-      <c r="E413" s="4" t="s">
+      <c r="E413" s="9" t="s">
         <v>862</v>
       </c>
       <c r="F413" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -10137,13 +10145,41 @@
         <v>863</v>
       </c>
       <c r="D414" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="E414" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="E414" s="4" t="s">
+      <c r="D415" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="F414" s="3" t="s">
-        <v>332</v>
+      <c r="E415" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="D416" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="E416" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -10174,10 +10210,10 @@
         <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -10199,12 +10235,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
